--- a/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.9998641928057</v>
+        <v>17.99986419280574</v>
       </c>
       <c r="C2">
         <v>12.55524706951283</v>
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.554149865055952</v>
+        <v>7.554149865055848</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>21.55715073389427</v>
+        <v>21.55715073389423</v>
       </c>
       <c r="H2">
-        <v>18.54662512554414</v>
+        <v>18.5466251255441</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.99148887464755</v>
+        <v>15.99148887464758</v>
       </c>
       <c r="K2">
-        <v>9.38142613987964</v>
+        <v>9.381426139879611</v>
       </c>
       <c r="L2">
-        <v>13.90890995578328</v>
+        <v>13.90890995578333</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.75896953961428</v>
+        <v>16.75896953961433</v>
       </c>
       <c r="C3">
-        <v>11.69337436972987</v>
+        <v>11.69337436972976</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.352253514533159</v>
+        <v>7.352253514533226</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>21.00666729229063</v>
+        <v>21.00666729229064</v>
       </c>
       <c r="H3">
-        <v>18.35954531568015</v>
+        <v>18.35954531568012</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.92720190334822</v>
+        <v>14.92720190334825</v>
       </c>
       <c r="K3">
-        <v>8.936520453659599</v>
+        <v>8.936520453659647</v>
       </c>
       <c r="L3">
-        <v>12.98095538929733</v>
+        <v>12.98095538929736</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.95568137734041</v>
+        <v>15.9556813773405</v>
       </c>
       <c r="C4">
-        <v>11.137198769458</v>
+        <v>11.13719876945802</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.232047461407093</v>
+        <v>7.232047461407108</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>20.69040328834353</v>
+        <v>20.69040328834344</v>
       </c>
       <c r="H4">
-        <v>18.26700825226738</v>
+        <v>18.26700825226727</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14.23955223187691</v>
+        <v>14.23955223187697</v>
       </c>
       <c r="K4">
-        <v>8.660497767203561</v>
+        <v>8.660497767203536</v>
       </c>
       <c r="L4">
-        <v>12.38205748966382</v>
+        <v>12.38205748966388</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.61780938073121</v>
+        <v>15.61780938073109</v>
       </c>
       <c r="C5">
-        <v>10.90367637509322</v>
+        <v>10.90367637509349</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.184030614273951</v>
+        <v>7.184030614273945</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>20.56689723360674</v>
+        <v>20.56689723360682</v>
       </c>
       <c r="H5">
-        <v>18.23463435526719</v>
+        <v>18.23463435526737</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.95065327767044</v>
+        <v>13.95065327767039</v>
       </c>
       <c r="K5">
-        <v>8.54742644708897</v>
+        <v>8.547426447088917</v>
       </c>
       <c r="L5">
-        <v>12.13060315508245</v>
+        <v>12.13060315508241</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.56106683096528</v>
+        <v>15.56106683096533</v>
       </c>
       <c r="C6">
-        <v>10.86448233076742</v>
+        <v>10.86448233076734</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.176116594019277</v>
+        <v>7.176116594019286</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>20.54671077199532</v>
+        <v>20.54671077199528</v>
       </c>
       <c r="H6">
-        <v>18.22957267402473</v>
+        <v>18.22957267402467</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.90215561101989</v>
+        <v>13.90215561101992</v>
       </c>
       <c r="K6">
-        <v>8.528619565907542</v>
+        <v>8.528619565907587</v>
       </c>
       <c r="L6">
-        <v>12.08840056190971</v>
+        <v>12.0884005619097</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.9511674919066</v>
+        <v>15.95116749190659</v>
       </c>
       <c r="C7">
-        <v>11.13407736187765</v>
+        <v>11.13407736187771</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.23139593925147</v>
+        <v>7.231395939251467</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>20.68871601414991</v>
+        <v>20.68871601415</v>
       </c>
       <c r="H7">
-        <v>18.26655041603927</v>
+        <v>18.26655041603936</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14.23569127031109</v>
+        <v>14.23569127031105</v>
       </c>
       <c r="K7">
-        <v>8.658975051785276</v>
+        <v>8.658975051785287</v>
       </c>
       <c r="L7">
-        <v>12.37869633458677</v>
+        <v>12.37869633458675</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.58051551872556</v>
+        <v>17.5805155187255</v>
       </c>
       <c r="C8">
         <v>12.26361588199584</v>
@@ -649,28 +649,28 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.48376920289193</v>
+        <v>7.483769202891915</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>21.36278172146885</v>
+        <v>21.3627817214689</v>
       </c>
       <c r="H8">
-        <v>18.47731895922665</v>
+        <v>18.47731895922673</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.63156169110557</v>
+        <v>15.63156169110554</v>
       </c>
       <c r="K8">
-        <v>9.228682469725337</v>
+        <v>9.228682469725355</v>
       </c>
       <c r="L8">
-        <v>13.59494937955791</v>
+        <v>13.59494937955787</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.45322703350953</v>
+        <v>20.4532270335096</v>
       </c>
       <c r="C9">
-        <v>14.26912099765399</v>
+        <v>14.26912099765387</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.007609067893535</v>
+        <v>8.007609067893538</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
@@ -696,19 +696,19 @@
         <v>22.86076388270872</v>
       </c>
       <c r="H9">
-        <v>19.0800100520403</v>
+        <v>19.08001005204026</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18.10208048028231</v>
+        <v>18.10208048028233</v>
       </c>
       <c r="K9">
-        <v>10.31898257459834</v>
+        <v>10.31898257459835</v>
       </c>
       <c r="L9">
-        <v>15.75279126426471</v>
+        <v>15.75279126426473</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.37597171026496</v>
+        <v>22.37597171026498</v>
       </c>
       <c r="C10">
-        <v>15.62190625978608</v>
+        <v>15.62190625978611</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.409255319635772</v>
+        <v>8.409255319635765</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>24.0738971072471</v>
+        <v>24.07389710724705</v>
       </c>
       <c r="H10">
-        <v>19.65458958968737</v>
+        <v>19.65458958968732</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19.76150152076612</v>
+        <v>19.76150152076611</v>
       </c>
       <c r="K10">
-        <v>11.17527030529269</v>
+        <v>11.17527030529277</v>
       </c>
       <c r="L10">
-        <v>17.20589965177825</v>
+        <v>17.20589965177829</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.21200420087177</v>
+        <v>23.21200420087182</v>
       </c>
       <c r="C11">
-        <v>16.21289652875617</v>
+        <v>16.21289652875611</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.595567823162009</v>
+        <v>8.595567823162039</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>24.65155826896003</v>
+        <v>24.65155826896008</v>
       </c>
       <c r="H11">
-        <v>19.94804862372864</v>
+        <v>19.9480486237287</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.48439973428204</v>
+        <v>20.48439973428206</v>
       </c>
       <c r="K11">
-        <v>11.61524863394682</v>
+        <v>11.61524863394683</v>
       </c>
       <c r="L11">
-        <v>17.83985264527387</v>
+        <v>17.83985264527385</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.52322466201532</v>
+        <v>23.52322466201521</v>
       </c>
       <c r="C12">
-        <v>16.4333459987747</v>
+        <v>16.43334599877478</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.666644276700765</v>
+        <v>8.66664427670071</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>24.87415240080637</v>
+        <v>24.87415240080639</v>
       </c>
       <c r="H12">
-        <v>20.06407336146687</v>
+        <v>20.06407336146693</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.75371113836943</v>
+        <v>20.75371113836939</v>
       </c>
       <c r="K12">
-        <v>11.77944209257357</v>
+        <v>11.77944209257359</v>
       </c>
       <c r="L12">
-        <v>18.07617280202404</v>
+        <v>18.07617280202402</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.45643326365613</v>
+        <v>23.45643326365609</v>
       </c>
       <c r="C13">
-        <v>16.38601427492861</v>
+        <v>16.38601427492855</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.651313173683794</v>
+        <v>8.651313173683752</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258221</v>
       </c>
       <c r="G13">
-        <v>24.82603915282194</v>
+        <v>24.82603915282197</v>
       </c>
       <c r="H13">
-        <v>20.03886287592182</v>
+        <v>20.03886287592186</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.69590451292478</v>
+        <v>20.69590451292477</v>
       </c>
       <c r="K13">
-        <v>11.74418549220353</v>
+        <v>11.74418549220352</v>
       </c>
       <c r="L13">
-        <v>18.025440987873</v>
+        <v>18.02544098787298</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.23771491142671</v>
+        <v>23.2377149114266</v>
       </c>
       <c r="C14">
-        <v>16.23109909524918</v>
+        <v>16.23109909524915</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.601404751295828</v>
+        <v>8.601404751295803</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>24.66979322897082</v>
+        <v>24.66979322897078</v>
       </c>
       <c r="H14">
         <v>19.95749421825415</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.50664401016265</v>
+        <v>20.50664401016254</v>
       </c>
       <c r="K14">
-        <v>11.62880461717254</v>
+        <v>11.62880461717255</v>
       </c>
       <c r="L14">
-        <v>17.8593689684502</v>
+        <v>17.85936896845016</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.10305058093618</v>
+        <v>23.10305058093631</v>
       </c>
       <c r="C15">
-        <v>16.13577850339465</v>
+        <v>16.13577850339453</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.570903001024204</v>
+        <v>8.570903001024275</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>24.57459364003141</v>
+        <v>24.57459364003126</v>
       </c>
       <c r="H15">
-        <v>19.90830005680236</v>
+        <v>19.90830005680219</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.39014418801084</v>
+        <v>20.39014418801091</v>
       </c>
       <c r="K15">
-        <v>11.55781961688625</v>
+        <v>11.55781961688626</v>
       </c>
       <c r="L15">
-        <v>17.75716218852594</v>
+        <v>17.75716218852599</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.32057333126513</v>
+        <v>22.32057333126502</v>
       </c>
       <c r="C16">
-        <v>15.58280620369969</v>
+        <v>15.58280620369987</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.39715210687408</v>
+        <v>8.397152106874055</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,19 +962,19 @@
         <v>24.03667565712044</v>
       </c>
       <c r="H16">
-        <v>19.6360810829335</v>
+        <v>19.63608108293359</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.71362851480224</v>
+        <v>19.71362851480221</v>
       </c>
       <c r="K16">
         <v>11.14617153345982</v>
       </c>
       <c r="L16">
-        <v>17.16393690154191</v>
+        <v>17.16393690154185</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.83078258503554</v>
+        <v>21.83078258503544</v>
       </c>
       <c r="C17">
-        <v>15.23743685369331</v>
+        <v>15.23743685369323</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.291485017203062</v>
+        <v>8.291485017203074</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.71337536642389</v>
+        <v>23.71337536642397</v>
       </c>
       <c r="H17">
-        <v>19.47750069830924</v>
+        <v>19.47750069830932</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.29052820075745</v>
+        <v>19.29052820075737</v>
       </c>
       <c r="K17">
-        <v>10.88919912890007</v>
+        <v>10.88919912890004</v>
       </c>
       <c r="L17">
-        <v>16.79317903504457</v>
+        <v>16.79317903504451</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.54541924770657</v>
+        <v>21.54541924770655</v>
       </c>
       <c r="C18">
         <v>15.03648229274426</v>
@@ -1029,28 +1029,28 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.231046143008045</v>
+        <v>8.231046143008038</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.52984023775092</v>
+        <v>23.52984023775094</v>
       </c>
       <c r="H18">
-        <v>19.38929167714302</v>
+        <v>19.38929167714307</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>19.04415101994468</v>
+        <v>19.04415101994466</v>
       </c>
       <c r="K18">
         <v>10.75797583232685</v>
       </c>
       <c r="L18">
-        <v>16.57737075800834</v>
+        <v>16.57737075800832</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.44816800271277</v>
+        <v>21.44816800271283</v>
       </c>
       <c r="C19">
-        <v>14.96804158668429</v>
+        <v>14.96804158668457</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.210640625255683</v>
+        <v>8.210640625255685</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150062</v>
       </c>
       <c r="G19">
-        <v>23.46811018312688</v>
+        <v>23.46811018312682</v>
       </c>
       <c r="H19">
-        <v>19.35993268027661</v>
+        <v>19.35993268027655</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.96020835928321</v>
+        <v>18.96020835928329</v>
       </c>
       <c r="K19">
-        <v>10.71839541484606</v>
+        <v>10.71839541484605</v>
       </c>
       <c r="L19">
-        <v>16.50385815044507</v>
+        <v>16.50385815044513</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.88329795799147</v>
+        <v>21.88329795799149</v>
       </c>
       <c r="C20">
-        <v>15.27443967924973</v>
+        <v>15.27443967924974</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.302698463577492</v>
+        <v>8.302698463577547</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>23.74754003356789</v>
+        <v>23.74754003356787</v>
       </c>
       <c r="H20">
-        <v>19.49406909151509</v>
+        <v>19.49406909151507</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.33587948915839</v>
+        <v>19.33587948915843</v>
       </c>
       <c r="K20">
-        <v>10.91672629795956</v>
+        <v>10.91672629795952</v>
       </c>
       <c r="L20">
-        <v>16.83291057692443</v>
+        <v>16.83291057692442</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.30210185639404</v>
+        <v>23.30210185639408</v>
       </c>
       <c r="C21">
-        <v>16.2766908527771</v>
+        <v>16.27669085277705</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.616049742182739</v>
+        <v>8.616049742182701</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329769</v>
       </c>
       <c r="G21">
-        <v>24.71558079367394</v>
+        <v>24.71558079367393</v>
       </c>
       <c r="H21">
-        <v>19.98125891541106</v>
+        <v>19.98125891541103</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.56235335396299</v>
+        <v>20.562353353963</v>
       </c>
       <c r="K21">
-        <v>11.66275932782595</v>
+        <v>11.66275932782596</v>
       </c>
       <c r="L21">
-        <v>17.90824868573573</v>
+        <v>17.90824868573577</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.1981909408358</v>
+        <v>24.19819094083583</v>
       </c>
       <c r="C22">
-        <v>16.91230770090046</v>
+        <v>16.91230770090055</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.823907927374169</v>
+        <v>8.823907927374201</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>25.37076165952299</v>
+        <v>25.37076165952298</v>
       </c>
       <c r="H22">
-        <v>20.32835580054061</v>
+        <v>20.32835580054058</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>21.33816780207027</v>
+        <v>21.33816780207032</v>
       </c>
       <c r="K22">
-        <v>12.13631446750524</v>
+        <v>12.13631446750523</v>
       </c>
       <c r="L22">
-        <v>18.58930294591475</v>
+        <v>18.58930294591476</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>23.72271724304192</v>
       </c>
       <c r="C23">
-        <v>16.57478457710164</v>
+        <v>16.57478457710143</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.71268471456797</v>
+        <v>8.712684714567951</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>25.01896492604503</v>
+        <v>25.01896492604506</v>
       </c>
       <c r="H23">
         <v>20.14038173334123</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.92639846331026</v>
+        <v>20.92639846331019</v>
       </c>
       <c r="K23">
-        <v>11.88480815952123</v>
+        <v>11.88480815952119</v>
       </c>
       <c r="L23">
-        <v>18.22774693895514</v>
+        <v>18.22774693895513</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.85956753364782</v>
+        <v>21.85956753364783</v>
       </c>
       <c r="C24">
-        <v>15.25771818037588</v>
+        <v>15.25771818037569</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.297627897498661</v>
+        <v>8.297627897498696</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575435</v>
       </c>
       <c r="G24">
-        <v>23.73208692585004</v>
+        <v>23.7320869258501</v>
       </c>
       <c r="H24">
-        <v>19.4865693196771</v>
+        <v>19.48656931967716</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.31538593675936</v>
+        <v>19.31538593675932</v>
       </c>
       <c r="K24">
-        <v>10.90428668480627</v>
+        <v>10.90428668480626</v>
       </c>
       <c r="L24">
-        <v>16.81495622649472</v>
+        <v>16.8149562264947</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.70973859501965</v>
+        <v>19.70973859501969</v>
       </c>
       <c r="C25">
-        <v>13.74832132664002</v>
+        <v>13.74832132664</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.862906230276205</v>
+        <v>7.862906230276208</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>33.19272459126709</v>
       </c>
       <c r="G25">
-        <v>22.43614329541593</v>
+        <v>22.43614329541596</v>
       </c>
       <c r="H25">
-        <v>18.89498996835717</v>
+        <v>18.89498996835722</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.46163044038017</v>
+        <v>17.46163044038016</v>
       </c>
       <c r="K25">
         <v>10.02740391185721</v>

--- a/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.99986419280574</v>
+        <v>17.9998641928057</v>
       </c>
       <c r="C2">
         <v>12.55524706951283</v>
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.554149865055848</v>
+        <v>7.554149865055952</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>21.55715073389423</v>
+        <v>21.55715073389427</v>
       </c>
       <c r="H2">
-        <v>18.5466251255441</v>
+        <v>18.54662512554414</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.99148887464758</v>
+        <v>15.99148887464755</v>
       </c>
       <c r="K2">
-        <v>9.381426139879611</v>
+        <v>9.38142613987964</v>
       </c>
       <c r="L2">
-        <v>13.90890995578333</v>
+        <v>13.90890995578328</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.75896953961433</v>
+        <v>16.75896953961428</v>
       </c>
       <c r="C3">
-        <v>11.69337436972976</v>
+        <v>11.69337436972987</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.352253514533226</v>
+        <v>7.352253514533159</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>21.00666729229064</v>
+        <v>21.00666729229063</v>
       </c>
       <c r="H3">
-        <v>18.35954531568012</v>
+        <v>18.35954531568015</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.92720190334825</v>
+        <v>14.92720190334822</v>
       </c>
       <c r="K3">
-        <v>8.936520453659647</v>
+        <v>8.936520453659599</v>
       </c>
       <c r="L3">
-        <v>12.98095538929736</v>
+        <v>12.98095538929733</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.9556813773405</v>
+        <v>15.95568137734041</v>
       </c>
       <c r="C4">
-        <v>11.13719876945802</v>
+        <v>11.137198769458</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.232047461407108</v>
+        <v>7.232047461407093</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>20.69040328834344</v>
+        <v>20.69040328834353</v>
       </c>
       <c r="H4">
-        <v>18.26700825226727</v>
+        <v>18.26700825226738</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14.23955223187697</v>
+        <v>14.23955223187691</v>
       </c>
       <c r="K4">
-        <v>8.660497767203536</v>
+        <v>8.660497767203561</v>
       </c>
       <c r="L4">
-        <v>12.38205748966388</v>
+        <v>12.38205748966382</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.61780938073109</v>
+        <v>15.61780938073121</v>
       </c>
       <c r="C5">
-        <v>10.90367637509349</v>
+        <v>10.90367637509322</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.184030614273945</v>
+        <v>7.184030614273951</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>20.56689723360682</v>
+        <v>20.56689723360674</v>
       </c>
       <c r="H5">
-        <v>18.23463435526737</v>
+        <v>18.23463435526719</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.95065327767039</v>
+        <v>13.95065327767044</v>
       </c>
       <c r="K5">
-        <v>8.547426447088917</v>
+        <v>8.54742644708897</v>
       </c>
       <c r="L5">
-        <v>12.13060315508241</v>
+        <v>12.13060315508245</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.56106683096533</v>
+        <v>15.56106683096528</v>
       </c>
       <c r="C6">
-        <v>10.86448233076734</v>
+        <v>10.86448233076742</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.176116594019286</v>
+        <v>7.176116594019277</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>20.54671077199528</v>
+        <v>20.54671077199532</v>
       </c>
       <c r="H6">
-        <v>18.22957267402467</v>
+        <v>18.22957267402473</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.90215561101992</v>
+        <v>13.90215561101989</v>
       </c>
       <c r="K6">
-        <v>8.528619565907587</v>
+        <v>8.528619565907542</v>
       </c>
       <c r="L6">
-        <v>12.0884005619097</v>
+        <v>12.08840056190971</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.95116749190659</v>
+        <v>15.9511674919066</v>
       </c>
       <c r="C7">
-        <v>11.13407736187771</v>
+        <v>11.13407736187765</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.231395939251467</v>
+        <v>7.23139593925147</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>20.68871601415</v>
+        <v>20.68871601414991</v>
       </c>
       <c r="H7">
-        <v>18.26655041603936</v>
+        <v>18.26655041603927</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14.23569127031105</v>
+        <v>14.23569127031109</v>
       </c>
       <c r="K7">
-        <v>8.658975051785287</v>
+        <v>8.658975051785276</v>
       </c>
       <c r="L7">
-        <v>12.37869633458675</v>
+        <v>12.37869633458677</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.5805155187255</v>
+        <v>17.58051551872556</v>
       </c>
       <c r="C8">
         <v>12.26361588199584</v>
@@ -649,28 +649,28 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.483769202891915</v>
+        <v>7.48376920289193</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>21.3627817214689</v>
+        <v>21.36278172146885</v>
       </c>
       <c r="H8">
-        <v>18.47731895922673</v>
+        <v>18.47731895922665</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.63156169110554</v>
+        <v>15.63156169110557</v>
       </c>
       <c r="K8">
-        <v>9.228682469725355</v>
+        <v>9.228682469725337</v>
       </c>
       <c r="L8">
-        <v>13.59494937955787</v>
+        <v>13.59494937955791</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.4532270335096</v>
+        <v>20.45322703350953</v>
       </c>
       <c r="C9">
-        <v>14.26912099765387</v>
+        <v>14.26912099765399</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.007609067893538</v>
+        <v>8.007609067893535</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
@@ -696,19 +696,19 @@
         <v>22.86076388270872</v>
       </c>
       <c r="H9">
-        <v>19.08001005204026</v>
+        <v>19.0800100520403</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18.10208048028233</v>
+        <v>18.10208048028231</v>
       </c>
       <c r="K9">
-        <v>10.31898257459835</v>
+        <v>10.31898257459834</v>
       </c>
       <c r="L9">
-        <v>15.75279126426473</v>
+        <v>15.75279126426471</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.37597171026498</v>
+        <v>22.37597171026496</v>
       </c>
       <c r="C10">
-        <v>15.62190625978611</v>
+        <v>15.62190625978608</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.409255319635765</v>
+        <v>8.409255319635772</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>24.07389710724705</v>
+        <v>24.0738971072471</v>
       </c>
       <c r="H10">
-        <v>19.65458958968732</v>
+        <v>19.65458958968737</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19.76150152076611</v>
+        <v>19.76150152076612</v>
       </c>
       <c r="K10">
-        <v>11.17527030529277</v>
+        <v>11.17527030529269</v>
       </c>
       <c r="L10">
-        <v>17.20589965177829</v>
+        <v>17.20589965177825</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.21200420087182</v>
+        <v>23.21200420087177</v>
       </c>
       <c r="C11">
-        <v>16.21289652875611</v>
+        <v>16.21289652875617</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.595567823162039</v>
+        <v>8.595567823162009</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>24.65155826896008</v>
+        <v>24.65155826896003</v>
       </c>
       <c r="H11">
-        <v>19.9480486237287</v>
+        <v>19.94804862372864</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.48439973428206</v>
+        <v>20.48439973428204</v>
       </c>
       <c r="K11">
-        <v>11.61524863394683</v>
+        <v>11.61524863394682</v>
       </c>
       <c r="L11">
-        <v>17.83985264527385</v>
+        <v>17.83985264527387</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.52322466201521</v>
+        <v>23.52322466201532</v>
       </c>
       <c r="C12">
-        <v>16.43334599877478</v>
+        <v>16.4333459987747</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.66664427670071</v>
+        <v>8.666644276700765</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>24.87415240080639</v>
+        <v>24.87415240080637</v>
       </c>
       <c r="H12">
-        <v>20.06407336146693</v>
+        <v>20.06407336146687</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.75371113836939</v>
+        <v>20.75371113836943</v>
       </c>
       <c r="K12">
-        <v>11.77944209257359</v>
+        <v>11.77944209257357</v>
       </c>
       <c r="L12">
-        <v>18.07617280202402</v>
+        <v>18.07617280202404</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.45643326365609</v>
+        <v>23.45643326365613</v>
       </c>
       <c r="C13">
-        <v>16.38601427492855</v>
+        <v>16.38601427492861</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.651313173683752</v>
+        <v>8.651313173683794</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>24.82603915282197</v>
+        <v>24.82603915282194</v>
       </c>
       <c r="H13">
-        <v>20.03886287592186</v>
+        <v>20.03886287592182</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.69590451292477</v>
+        <v>20.69590451292478</v>
       </c>
       <c r="K13">
-        <v>11.74418549220352</v>
+        <v>11.74418549220353</v>
       </c>
       <c r="L13">
-        <v>18.02544098787298</v>
+        <v>18.025440987873</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.2377149114266</v>
+        <v>23.23771491142671</v>
       </c>
       <c r="C14">
-        <v>16.23109909524915</v>
+        <v>16.23109909524918</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.601404751295803</v>
+        <v>8.601404751295828</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>24.66979322897078</v>
+        <v>24.66979322897082</v>
       </c>
       <c r="H14">
         <v>19.95749421825415</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.50664401016254</v>
+        <v>20.50664401016265</v>
       </c>
       <c r="K14">
-        <v>11.62880461717255</v>
+        <v>11.62880461717254</v>
       </c>
       <c r="L14">
-        <v>17.85936896845016</v>
+        <v>17.8593689684502</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.10305058093631</v>
+        <v>23.10305058093618</v>
       </c>
       <c r="C15">
-        <v>16.13577850339453</v>
+        <v>16.13577850339465</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.570903001024275</v>
+        <v>8.570903001024204</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>24.57459364003126</v>
+        <v>24.57459364003141</v>
       </c>
       <c r="H15">
-        <v>19.90830005680219</v>
+        <v>19.90830005680236</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.39014418801091</v>
+        <v>20.39014418801084</v>
       </c>
       <c r="K15">
-        <v>11.55781961688626</v>
+        <v>11.55781961688625</v>
       </c>
       <c r="L15">
-        <v>17.75716218852599</v>
+        <v>17.75716218852594</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.32057333126502</v>
+        <v>22.32057333126513</v>
       </c>
       <c r="C16">
-        <v>15.58280620369987</v>
+        <v>15.58280620369969</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.397152106874055</v>
+        <v>8.39715210687408</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,19 +962,19 @@
         <v>24.03667565712044</v>
       </c>
       <c r="H16">
-        <v>19.63608108293359</v>
+        <v>19.6360810829335</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.71362851480221</v>
+        <v>19.71362851480224</v>
       </c>
       <c r="K16">
         <v>11.14617153345982</v>
       </c>
       <c r="L16">
-        <v>17.16393690154185</v>
+        <v>17.16393690154191</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.83078258503544</v>
+        <v>21.83078258503554</v>
       </c>
       <c r="C17">
-        <v>15.23743685369323</v>
+        <v>15.23743685369331</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.291485017203074</v>
+        <v>8.291485017203062</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.71337536642397</v>
+        <v>23.71337536642389</v>
       </c>
       <c r="H17">
-        <v>19.47750069830932</v>
+        <v>19.47750069830924</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.29052820075737</v>
+        <v>19.29052820075745</v>
       </c>
       <c r="K17">
-        <v>10.88919912890004</v>
+        <v>10.88919912890007</v>
       </c>
       <c r="L17">
-        <v>16.79317903504451</v>
+        <v>16.79317903504457</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.54541924770655</v>
+        <v>21.54541924770657</v>
       </c>
       <c r="C18">
         <v>15.03648229274426</v>
@@ -1029,28 +1029,28 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.231046143008038</v>
+        <v>8.231046143008045</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.52984023775094</v>
+        <v>23.52984023775092</v>
       </c>
       <c r="H18">
-        <v>19.38929167714307</v>
+        <v>19.38929167714302</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>19.04415101994466</v>
+        <v>19.04415101994468</v>
       </c>
       <c r="K18">
         <v>10.75797583232685</v>
       </c>
       <c r="L18">
-        <v>16.57737075800832</v>
+        <v>16.57737075800834</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.44816800271283</v>
+        <v>21.44816800271277</v>
       </c>
       <c r="C19">
-        <v>14.96804158668457</v>
+        <v>14.96804158668429</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.210640625255685</v>
+        <v>8.210640625255683</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>23.46811018312682</v>
+        <v>23.46811018312688</v>
       </c>
       <c r="H19">
-        <v>19.35993268027655</v>
+        <v>19.35993268027661</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.96020835928329</v>
+        <v>18.96020835928321</v>
       </c>
       <c r="K19">
-        <v>10.71839541484605</v>
+        <v>10.71839541484606</v>
       </c>
       <c r="L19">
-        <v>16.50385815044513</v>
+        <v>16.50385815044507</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.88329795799149</v>
+        <v>21.88329795799147</v>
       </c>
       <c r="C20">
-        <v>15.27443967924974</v>
+        <v>15.27443967924973</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.302698463577547</v>
+        <v>8.302698463577492</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>23.74754003356787</v>
+        <v>23.74754003356789</v>
       </c>
       <c r="H20">
-        <v>19.49406909151507</v>
+        <v>19.49406909151509</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.33587948915843</v>
+        <v>19.33587948915839</v>
       </c>
       <c r="K20">
-        <v>10.91672629795952</v>
+        <v>10.91672629795956</v>
       </c>
       <c r="L20">
-        <v>16.83291057692442</v>
+        <v>16.83291057692443</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.30210185639408</v>
+        <v>23.30210185639404</v>
       </c>
       <c r="C21">
-        <v>16.27669085277705</v>
+        <v>16.2766908527771</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.616049742182701</v>
+        <v>8.616049742182739</v>
       </c>
       <c r="F21">
-        <v>39.30090300329769</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>24.71558079367393</v>
+        <v>24.71558079367394</v>
       </c>
       <c r="H21">
-        <v>19.98125891541103</v>
+        <v>19.98125891541106</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.562353353963</v>
+        <v>20.56235335396299</v>
       </c>
       <c r="K21">
-        <v>11.66275932782596</v>
+        <v>11.66275932782595</v>
       </c>
       <c r="L21">
-        <v>17.90824868573577</v>
+        <v>17.90824868573573</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.19819094083583</v>
+        <v>24.1981909408358</v>
       </c>
       <c r="C22">
-        <v>16.91230770090055</v>
+        <v>16.91230770090046</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.823907927374201</v>
+        <v>8.823907927374169</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>25.37076165952298</v>
+        <v>25.37076165952299</v>
       </c>
       <c r="H22">
-        <v>20.32835580054058</v>
+        <v>20.32835580054061</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>21.33816780207032</v>
+        <v>21.33816780207027</v>
       </c>
       <c r="K22">
-        <v>12.13631446750523</v>
+        <v>12.13631446750524</v>
       </c>
       <c r="L22">
-        <v>18.58930294591476</v>
+        <v>18.58930294591475</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>23.72271724304192</v>
       </c>
       <c r="C23">
-        <v>16.57478457710143</v>
+        <v>16.57478457710164</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.712684714567951</v>
+        <v>8.71268471456797</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>25.01896492604506</v>
+        <v>25.01896492604503</v>
       </c>
       <c r="H23">
         <v>20.14038173334123</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.92639846331019</v>
+        <v>20.92639846331026</v>
       </c>
       <c r="K23">
-        <v>11.88480815952119</v>
+        <v>11.88480815952123</v>
       </c>
       <c r="L23">
-        <v>18.22774693895513</v>
+        <v>18.22774693895514</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.85956753364783</v>
+        <v>21.85956753364782</v>
       </c>
       <c r="C24">
-        <v>15.25771818037569</v>
+        <v>15.25771818037588</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.297627897498696</v>
+        <v>8.297627897498661</v>
       </c>
       <c r="F24">
-        <v>36.85121910575435</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>23.7320869258501</v>
+        <v>23.73208692585004</v>
       </c>
       <c r="H24">
-        <v>19.48656931967716</v>
+        <v>19.4865693196771</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.31538593675932</v>
+        <v>19.31538593675936</v>
       </c>
       <c r="K24">
-        <v>10.90428668480626</v>
+        <v>10.90428668480627</v>
       </c>
       <c r="L24">
-        <v>16.8149562264947</v>
+        <v>16.81495622649472</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.70973859501969</v>
+        <v>19.70973859501965</v>
       </c>
       <c r="C25">
-        <v>13.74832132664</v>
+        <v>13.74832132664002</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.862906230276208</v>
+        <v>7.862906230276205</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>22.43614329541596</v>
+        <v>22.43614329541593</v>
       </c>
       <c r="H25">
-        <v>18.89498996835722</v>
+        <v>18.89498996835717</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.46163044038016</v>
+        <v>17.46163044038017</v>
       </c>
       <c r="K25">
         <v>10.02740391185721</v>

--- a/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.9998641928057</v>
+        <v>18.000194472331</v>
       </c>
       <c r="C2">
-        <v>12.55524706951283</v>
+        <v>12.5509632631589</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.554149865055952</v>
+        <v>7.555164631587068</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>21.55715073389427</v>
+        <v>19.72648960040264</v>
       </c>
       <c r="H2">
-        <v>18.54662512554414</v>
+        <v>21.58307608227775</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>18.52742301528115</v>
       </c>
       <c r="J2">
-        <v>15.99148887464755</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.38142613987964</v>
+        <v>15.99032734639481</v>
       </c>
       <c r="L2">
-        <v>13.90890995578328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.380627451639093</v>
+      </c>
+      <c r="M2">
+        <v>13.90861122883348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.75896953961428</v>
+        <v>16.75942929074251</v>
       </c>
       <c r="C3">
-        <v>11.69337436972987</v>
+        <v>11.6895532943209</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.352253514533159</v>
+        <v>7.353302351688868</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>21.00666729229063</v>
+        <v>18.9256606405623</v>
       </c>
       <c r="H3">
-        <v>18.35954531568015</v>
+        <v>21.03264248086028</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>18.34181903559288</v>
       </c>
       <c r="J3">
-        <v>14.92720190334822</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8.936520453659599</v>
+        <v>14.92630126098071</v>
       </c>
       <c r="L3">
-        <v>12.98095538929733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.935778309367066</v>
+      </c>
+      <c r="M3">
+        <v>12.98077740829782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.95568137734041</v>
+        <v>15.95621754421813</v>
       </c>
       <c r="C4">
-        <v>11.137198769458</v>
+        <v>11.13367306162375</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.232047461407093</v>
+        <v>7.233122520677352</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>20.69040328834353</v>
+        <v>18.44717193926524</v>
       </c>
       <c r="H4">
-        <v>18.26700825226738</v>
+        <v>20.71649405100249</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>18.25020299125936</v>
       </c>
       <c r="J4">
-        <v>14.23955223187691</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>8.660497767203561</v>
+        <v>14.23881637662252</v>
       </c>
       <c r="L4">
-        <v>12.38205748966382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.659789041583256</v>
+      </c>
+      <c r="M4">
+        <v>12.38195377829886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.61780938073121</v>
+        <v>15.61837607907601</v>
       </c>
       <c r="C5">
-        <v>10.90367637509322</v>
+        <v>10.90027413805119</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.184030614273951</v>
+        <v>7.185117690119277</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>20.56689723360674</v>
+        <v>18.25564357073569</v>
       </c>
       <c r="H5">
-        <v>18.23463435526719</v>
+        <v>20.59305568957381</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>18.21820746514171</v>
       </c>
       <c r="J5">
-        <v>13.95065327767044</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>8.54742644708897</v>
+        <v>13.94998598264391</v>
       </c>
       <c r="L5">
-        <v>12.13060315508245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.546731063978678</v>
+      </c>
+      <c r="M5">
+        <v>12.13052988834538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.56106683096528</v>
+        <v>15.56163856704155</v>
       </c>
       <c r="C6">
-        <v>10.86448233076742</v>
+        <v>10.86110079193436</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.176116594019277</v>
+        <v>7.177205745299663</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>20.54671077199532</v>
+        <v>18.2240535098885</v>
       </c>
       <c r="H6">
-        <v>18.22957267402473</v>
+        <v>20.57288168710843</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>18.21320877696033</v>
       </c>
       <c r="J6">
-        <v>13.90215561101989</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>8.528619565907542</v>
+        <v>13.90149979299365</v>
       </c>
       <c r="L6">
-        <v>12.08840056190971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.527926383027479</v>
+      </c>
+      <c r="M6">
+        <v>12.08833236559723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.9511674919066</v>
+        <v>15.95170407279073</v>
       </c>
       <c r="C7">
-        <v>11.13407736187765</v>
+        <v>11.13055330626104</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.23139593925147</v>
+        <v>7.232471155204269</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>20.68871601414991</v>
+        <v>18.44457472702578</v>
       </c>
       <c r="H7">
-        <v>18.26655041603927</v>
+        <v>20.71480760747256</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>18.24975024640825</v>
       </c>
       <c r="J7">
-        <v>14.23569127031109</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>8.658975051785276</v>
+        <v>14.23495633364201</v>
       </c>
       <c r="L7">
-        <v>12.37869633458677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.658266507160679</v>
+      </c>
+      <c r="M7">
+        <v>12.37859303288947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.58051551872556</v>
+        <v>17.58089118131433</v>
       </c>
       <c r="C8">
-        <v>12.26361588199584</v>
+        <v>12.25948945432248</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.48376920289193</v>
+        <v>7.484794618354998</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>21.36278172146885</v>
+        <v>19.44769543654085</v>
       </c>
       <c r="H8">
-        <v>18.47731895922665</v>
+        <v>21.38870619921672</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>18.45862220864522</v>
       </c>
       <c r="J8">
-        <v>15.63156169110557</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>9.228682469725337</v>
+        <v>15.63048930910248</v>
       </c>
       <c r="L8">
-        <v>13.59494937955791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.227903580157832</v>
+      </c>
+      <c r="M8">
+        <v>13.59469234666756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.45322703350953</v>
+        <v>20.45325478214076</v>
       </c>
       <c r="C9">
-        <v>14.26912099765399</v>
+        <v>14.26389048589486</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.007609067893535</v>
+        <v>8.008578419945088</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>22.86076388270872</v>
+        <v>21.51491195775559</v>
       </c>
       <c r="H9">
-        <v>19.0800100520403</v>
+        <v>22.88706168336479</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>19.05774361308466</v>
       </c>
       <c r="J9">
-        <v>18.10208048028231</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>10.31898257459834</v>
+        <v>18.10037197676284</v>
       </c>
       <c r="L9">
-        <v>15.75279126426471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>10.31805275855298</v>
+      </c>
+      <c r="M9">
+        <v>15.75222712877211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.37597171026496</v>
+        <v>22.37571206004992</v>
       </c>
       <c r="C10">
-        <v>15.62190625978608</v>
+        <v>15.61589466563639</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.409255319635772</v>
+        <v>8.410207339972784</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>24.0738971072471</v>
+        <v>23.09071887792197</v>
       </c>
       <c r="H10">
-        <v>19.65458958968737</v>
+        <v>24.10092272455662</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>19.62983358737021</v>
       </c>
       <c r="J10">
-        <v>19.76150152076612</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>11.17527030529269</v>
+        <v>19.75932600482961</v>
       </c>
       <c r="L10">
-        <v>17.20589965177825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11.174243160123</v>
+      </c>
+      <c r="M10">
+        <v>17.20509664255111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.21200420087177</v>
+        <v>23.21160380626332</v>
       </c>
       <c r="C11">
-        <v>16.21289652875617</v>
+        <v>16.20653214752532</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.595567823162009</v>
+        <v>8.596516574306889</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>24.65155826896003</v>
+        <v>23.82000964267766</v>
       </c>
       <c r="H11">
-        <v>19.94804862372864</v>
+        <v>24.67901636721051</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>19.92219685046437</v>
       </c>
       <c r="J11">
-        <v>20.48439973428204</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>11.61524863394682</v>
+        <v>20.48200825213748</v>
       </c>
       <c r="L11">
-        <v>17.83985264527387</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>11.61415466924899</v>
+      </c>
+      <c r="M11">
+        <v>17.83893565695084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.52322466201532</v>
+        <v>23.52276922905056</v>
       </c>
       <c r="C12">
-        <v>16.4333459987747</v>
+        <v>16.42684801971355</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.666644276700765</v>
+        <v>8.667592389854832</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>24.87415240080637</v>
+        <v>24.0980345324177</v>
       </c>
       <c r="H12">
-        <v>20.06407336146687</v>
+        <v>24.9017889345216</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>20.03781245040662</v>
       </c>
       <c r="J12">
-        <v>20.75371113836943</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>11.77944209257357</v>
+        <v>20.75123703547353</v>
       </c>
       <c r="L12">
-        <v>18.07617280202404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>11.77832219546974</v>
+      </c>
+      <c r="M12">
+        <v>18.07521165414708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.45643326365613</v>
+        <v>23.45598976695658</v>
       </c>
       <c r="C13">
-        <v>16.38601427492861</v>
+        <v>16.37954507512344</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.651313173683794</v>
+        <v>8.65226139871424</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>24.82603915282194</v>
+        <v>24.03807249846189</v>
       </c>
       <c r="H13">
-        <v>20.03886287592182</v>
+        <v>24.85363660468239</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>20.01268981492416</v>
       </c>
       <c r="J13">
-        <v>20.69590451292478</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>11.74418549220353</v>
+        <v>20.693448246934</v>
       </c>
       <c r="L13">
-        <v>18.025440987873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>11.74307121056826</v>
+      </c>
+      <c r="M13">
+        <v>18.02448939902487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.23771491142671</v>
+        <v>23.23731002557998</v>
       </c>
       <c r="C14">
-        <v>16.23109909524918</v>
+        <v>16.2247237252149</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.601404751295828</v>
+        <v>8.602353438340829</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>24.66979322897082</v>
+        <v>23.84284506294728</v>
       </c>
       <c r="H14">
-        <v>19.95749421825415</v>
+        <v>24.69726571315642</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>19.93160866610155</v>
       </c>
       <c r="J14">
-        <v>20.50664401016265</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>11.62880461717254</v>
+        <v>20.50424574962358</v>
       </c>
       <c r="L14">
-        <v>17.8593689684502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>11.62770853249387</v>
+      </c>
+      <c r="M14">
+        <v>17.85844836855765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.10305058093618</v>
+        <v>23.10266910879248</v>
       </c>
       <c r="C15">
-        <v>16.13577850339465</v>
+        <v>16.12946059445807</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.570903001024204</v>
+        <v>8.57185204708362</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>24.57459364003141</v>
+        <v>23.72350770638323</v>
       </c>
       <c r="H15">
-        <v>19.90830005680236</v>
+        <v>24.60199148859332</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>19.88259138149982</v>
       </c>
       <c r="J15">
-        <v>20.39014418801084</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>11.55781961688625</v>
+        <v>20.38778133766544</v>
       </c>
       <c r="L15">
-        <v>17.75716218852594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>11.55673459188512</v>
+      </c>
+      <c r="M15">
+        <v>17.7562604327669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.32057333126513</v>
+        <v>22.32032265282168</v>
       </c>
       <c r="C16">
-        <v>15.58280620369969</v>
+        <v>15.57681768535932</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.39715210687408</v>
+        <v>8.398104428587033</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>24.03667565712044</v>
+        <v>23.04331295423903</v>
       </c>
       <c r="H16">
-        <v>19.6360810829335</v>
+        <v>24.063675060373</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>19.6113974789902</v>
       </c>
       <c r="J16">
-        <v>19.71362851480224</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>11.14617153345982</v>
+        <v>19.71146701434652</v>
       </c>
       <c r="L16">
-        <v>17.16393690154191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.14514867512693</v>
+      </c>
+      <c r="M16">
+        <v>17.16314121491008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.83078258503554</v>
+        <v>21.83060937989896</v>
       </c>
       <c r="C17">
-        <v>15.23743685369331</v>
+        <v>15.23165080436275</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.291485017203062</v>
+        <v>8.292440489297919</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.71337536642389</v>
+        <v>22.62925344372478</v>
       </c>
       <c r="H17">
-        <v>19.47750069830924</v>
+        <v>23.74015639541004</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>19.45345576694045</v>
       </c>
       <c r="J17">
-        <v>19.29052820075745</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>10.88919912890007</v>
+        <v>19.28848909518109</v>
       </c>
       <c r="L17">
-        <v>16.79317903504457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>10.88821344241915</v>
+      </c>
+      <c r="M17">
+        <v>16.79244690064462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.54541924770657</v>
+        <v>21.54528968192588</v>
       </c>
       <c r="C18">
-        <v>15.03648229274426</v>
+        <v>15.03081296072136</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.231046143008045</v>
+        <v>8.232003866105901</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.52984023775092</v>
+        <v>22.39226144555506</v>
       </c>
       <c r="H18">
-        <v>19.38929167714302</v>
+        <v>23.5565052087607</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>19.36561752768232</v>
       </c>
       <c r="J18">
-        <v>19.04415101994468</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>10.75797583232685</v>
+        <v>19.04218200322748</v>
       </c>
       <c r="L18">
-        <v>16.57737075800834</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>10.75697842370309</v>
+      </c>
+      <c r="M18">
+        <v>16.57667469266213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.44816800271277</v>
+        <v>21.4480530627608</v>
       </c>
       <c r="C19">
-        <v>14.96804158668429</v>
+        <v>14.96241182879362</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.210640625255683</v>
+        <v>8.211599187626726</v>
       </c>
       <c r="F19">
         <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>23.46811018312688</v>
+        <v>22.31221886216421</v>
       </c>
       <c r="H19">
-        <v>19.35993268027661</v>
+        <v>23.49473749421952</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>19.33638464294731</v>
       </c>
       <c r="J19">
-        <v>18.96020835928321</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>10.71839541484606</v>
+        <v>18.95826302983847</v>
       </c>
       <c r="L19">
-        <v>16.50385815044507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>10.7174042751142</v>
+      </c>
+      <c r="M19">
+        <v>16.50317422086234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.88329795799147</v>
+        <v>21.88311660308638</v>
       </c>
       <c r="C20">
-        <v>15.27443967924973</v>
+        <v>15.26863205212016</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.302698463577492</v>
+        <v>8.303653555294638</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>23.74754003356789</v>
+        <v>22.67321000660151</v>
       </c>
       <c r="H20">
-        <v>19.49406909151509</v>
+        <v>23.77434332008324</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>19.4699558126989</v>
       </c>
       <c r="J20">
-        <v>19.33587948915839</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>10.91672629795956</v>
+        <v>19.33382738875362</v>
       </c>
       <c r="L20">
-        <v>16.83291057692443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>10.91573668765823</v>
+      </c>
+      <c r="M20">
+        <v>16.83217172901833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.30210185639404</v>
+        <v>23.30168567950924</v>
       </c>
       <c r="C21">
-        <v>16.2766908527771</v>
+        <v>16.27028792595993</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.616049742182739</v>
+        <v>8.616998277813725</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>24.71558079367394</v>
+        <v>23.90013680771385</v>
       </c>
       <c r="H21">
-        <v>19.98125891541106</v>
+        <v>24.7430895856819</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>19.95528875387189</v>
       </c>
       <c r="J21">
-        <v>20.56235335396299</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>11.66275932782595</v>
+        <v>20.5599380814392</v>
       </c>
       <c r="L21">
-        <v>17.90824868573573</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>11.66165791656614</v>
+      </c>
+      <c r="M21">
+        <v>17.9073190127558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.1981909408358</v>
+        <v>24.19761096779112</v>
       </c>
       <c r="C22">
-        <v>16.91230770090046</v>
+        <v>16.90551547684917</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.823907927374169</v>
+        <v>8.824855635926687</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>25.37076165952299</v>
+        <v>24.71291337283599</v>
       </c>
       <c r="H22">
-        <v>20.32835580054061</v>
+        <v>25.39881699418281</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>20.30120604129819</v>
       </c>
       <c r="J22">
-        <v>21.33816780207027</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>12.13631446750524</v>
+        <v>21.3355100996051</v>
       </c>
       <c r="L22">
-        <v>18.58930294591475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.13513623661533</v>
+      </c>
+      <c r="M22">
+        <v>18.5882426055087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.72271724304192</v>
+        <v>23.72222574848042</v>
       </c>
       <c r="C23">
-        <v>16.57478457710164</v>
+        <v>16.56820028371752</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.71268471456797</v>
+        <v>8.713632572777223</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>25.01896492604503</v>
+        <v>24.27808204518456</v>
       </c>
       <c r="H23">
-        <v>20.14038173334123</v>
+        <v>25.04672073619657</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>20.11385830342591</v>
       </c>
       <c r="J23">
-        <v>20.92639846331026</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>11.88480815952123</v>
+        <v>20.92387073565678</v>
       </c>
       <c r="L23">
-        <v>18.22774693895514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>11.88367132444768</v>
+      </c>
+      <c r="M23">
+        <v>18.22675696926557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.85956753364782</v>
+        <v>21.85938986603752</v>
       </c>
       <c r="C24">
-        <v>15.25771818037588</v>
+        <v>15.25192030756013</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.297627897498661</v>
+        <v>8.298583159810088</v>
       </c>
       <c r="F24">
         <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>23.73208692585004</v>
+        <v>22.65333395861528</v>
       </c>
       <c r="H24">
-        <v>19.4865693196771</v>
+        <v>23.75888012019173</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>19.46248692956824</v>
       </c>
       <c r="J24">
-        <v>19.31538593675936</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>10.90428668480627</v>
+        <v>19.31333971215652</v>
       </c>
       <c r="L24">
-        <v>16.81495622649472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>10.90329884939478</v>
+      </c>
+      <c r="M24">
+        <v>16.81422041520514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.70973859501965</v>
+        <v>19.70986509723512</v>
       </c>
       <c r="C25">
-        <v>13.74832132664002</v>
+        <v>13.74338294733507</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.862906230276205</v>
+        <v>7.863886407147283</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>22.43614329541593</v>
+        <v>20.94550923108009</v>
       </c>
       <c r="H25">
-        <v>18.89498996835717</v>
+        <v>22.46226182797989</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>18.87366878087976</v>
       </c>
       <c r="J25">
-        <v>17.46163044038017</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>10.02740391185721</v>
+        <v>17.46009282332797</v>
       </c>
       <c r="L25">
-        <v>15.1927631636303</v>
+        <v>10.026516727723</v>
+      </c>
+      <c r="M25">
+        <v>15.19228367805578</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.000194472331</v>
+        <v>19.16063991245427</v>
       </c>
       <c r="C2">
-        <v>12.5509632631589</v>
+        <v>12.58127458139622</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.555164631587068</v>
+        <v>10.86779479506343</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>35.98617252036516</v>
       </c>
       <c r="G2">
-        <v>19.72648960040264</v>
+        <v>2.081750649791241</v>
       </c>
       <c r="H2">
-        <v>21.58307608227775</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>18.52742301528115</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.130841555692908</v>
       </c>
       <c r="K2">
-        <v>15.99032734639481</v>
+        <v>16.61861141121192</v>
       </c>
       <c r="L2">
-        <v>9.380627451639093</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.90861122883348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15.81201697436828</v>
+      </c>
+      <c r="N2">
+        <v>12.60646736963352</v>
+      </c>
+      <c r="O2">
+        <v>22.01856630613024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.75942929074251</v>
+        <v>17.80483606058151</v>
       </c>
       <c r="C3">
-        <v>11.6895532943209</v>
+        <v>11.70583061699219</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.353302351688868</v>
+        <v>10.51985993362299</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>34.58847505191148</v>
       </c>
       <c r="G3">
-        <v>18.9256606405623</v>
+        <v>2.090589611128761</v>
       </c>
       <c r="H3">
-        <v>21.03264248086028</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>18.34181903559288</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.203738009192213</v>
       </c>
       <c r="K3">
-        <v>14.92630126098071</v>
+        <v>15.46262409093087</v>
       </c>
       <c r="L3">
-        <v>8.935778309367066</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.98077740829782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.0135416675442</v>
+      </c>
+      <c r="N3">
+        <v>12.86858493543893</v>
+      </c>
+      <c r="O3">
+        <v>21.42325761264478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.95621754421813</v>
+        <v>16.9283771878453</v>
       </c>
       <c r="C4">
-        <v>11.13367306162375</v>
+        <v>11.14005164290267</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.233122520677352</v>
+        <v>10.30529755374525</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>33.73643311196197</v>
       </c>
       <c r="G4">
-        <v>18.44717193926524</v>
+        <v>2.096149120037425</v>
       </c>
       <c r="H4">
-        <v>20.71649405100249</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>18.25020299125936</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.249924922488688</v>
       </c>
       <c r="K4">
-        <v>14.23881637662252</v>
+        <v>14.71513573999682</v>
       </c>
       <c r="L4">
-        <v>8.659789041583256</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.38195377829886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.51124691962112</v>
+      </c>
+      <c r="N4">
+        <v>13.03263154449494</v>
+      </c>
+      <c r="O4">
+        <v>21.07523042977773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.61837607907601</v>
+        <v>16.56002907332123</v>
       </c>
       <c r="C5">
-        <v>10.90027413805119</v>
+        <v>10.90229607224969</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.185117690119277</v>
+        <v>10.21774353556917</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>33.39114662976473</v>
       </c>
       <c r="G5">
-        <v>18.25564357073569</v>
+        <v>2.0984497142936</v>
       </c>
       <c r="H5">
-        <v>20.59305568957381</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>18.21820746514171</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.269108516421662</v>
       </c>
       <c r="K5">
-        <v>13.94998598264391</v>
+        <v>14.400929868616</v>
       </c>
       <c r="L5">
-        <v>8.546731063978678</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>12.13052988834538</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.30376888393272</v>
+      </c>
+      <c r="N5">
+        <v>13.10029444193524</v>
+      </c>
+      <c r="O5">
+        <v>20.93779914999766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.56163856704155</v>
+        <v>16.49818626479423</v>
       </c>
       <c r="C6">
-        <v>10.86110079193436</v>
+        <v>10.86237973778026</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.177205745299663</v>
+        <v>10.20320166981375</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>33.33394040114717</v>
       </c>
       <c r="G6">
-        <v>18.2240535098885</v>
+        <v>2.098833892578448</v>
       </c>
       <c r="H6">
-        <v>20.57288168710843</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>18.21320877696033</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.272315896221329</v>
       </c>
       <c r="K6">
-        <v>13.90149979299365</v>
+        <v>14.34817321377119</v>
       </c>
       <c r="L6">
-        <v>8.527926383027479</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.08833236559723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.26915665910155</v>
+      </c>
+      <c r="N6">
+        <v>13.11157980416567</v>
+      </c>
+      <c r="O6">
+        <v>20.9152437421991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.95170407279073</v>
+        <v>16.92345495534659</v>
       </c>
       <c r="C7">
-        <v>11.13055330626104</v>
+        <v>11.13687444223153</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.232471155204269</v>
+        <v>10.30411708875638</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>33.73176811993417</v>
       </c>
       <c r="G7">
-        <v>18.44457472702578</v>
+        <v>2.096180002489473</v>
       </c>
       <c r="H7">
-        <v>20.71480760747256</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>18.24975024640825</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.250182169095257</v>
       </c>
       <c r="K7">
-        <v>14.23495633364201</v>
+        <v>14.71093726298357</v>
       </c>
       <c r="L7">
-        <v>8.658266507160679</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.37859303288947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.50845974521313</v>
+      </c>
+      <c r="N7">
+        <v>13.03354073852517</v>
+      </c>
+      <c r="O7">
+        <v>21.07335921224004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.58089118131433</v>
+        <v>18.70221211074303</v>
       </c>
       <c r="C8">
-        <v>12.25948945432248</v>
+        <v>12.2852284785471</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.484794618354998</v>
+        <v>10.748086080541</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>35.50318497118599</v>
       </c>
       <c r="G8">
-        <v>19.44769543654085</v>
+        <v>2.084771957937854</v>
       </c>
       <c r="H8">
-        <v>21.38870619921672</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>18.45862220864522</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.1556814862219</v>
       </c>
       <c r="K8">
-        <v>15.63048930910248</v>
+        <v>16.22778113452787</v>
       </c>
       <c r="L8">
-        <v>9.227903580157832</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.59469234666756</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15.53932629965812</v>
+      </c>
+      <c r="N8">
+        <v>12.69622033295471</v>
+      </c>
+      <c r="O8">
+        <v>21.80967050708788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.45325478214076</v>
+        <v>21.84734822042805</v>
       </c>
       <c r="C9">
-        <v>14.26389048589486</v>
+        <v>14.31740988633043</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.008578419945088</v>
+        <v>11.60677553002986</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>39.01156795220329</v>
       </c>
       <c r="G9">
-        <v>21.51491195775559</v>
+        <v>2.063364115518942</v>
       </c>
       <c r="H9">
-        <v>22.88706168336479</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>19.05774361308466</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.98158595590214</v>
       </c>
       <c r="K9">
-        <v>18.10037197676284</v>
+        <v>18.90870534190806</v>
       </c>
       <c r="L9">
-        <v>10.31805275855298</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>15.75222712877211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17.45737981001018</v>
+      </c>
+      <c r="N9">
+        <v>12.05790452633445</v>
+      </c>
+      <c r="O9">
+        <v>23.39264999480403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.37571206004992</v>
+        <v>23.95815628716365</v>
       </c>
       <c r="C10">
-        <v>15.61589466563639</v>
+        <v>15.68316399096211</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.410207339972784</v>
+        <v>12.22508874483596</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>41.59576665285748</v>
       </c>
       <c r="G10">
-        <v>23.09071887792197</v>
+        <v>2.048090181665981</v>
       </c>
       <c r="H10">
-        <v>24.10092272455662</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>19.62983358737021</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.860406149229633</v>
       </c>
       <c r="K10">
-        <v>19.75932600482961</v>
+        <v>20.70772836073812</v>
       </c>
       <c r="L10">
-        <v>11.174243160123</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.20509664255111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>19.0064551758293</v>
+      </c>
+      <c r="N10">
+        <v>11.60098435178564</v>
+      </c>
+      <c r="O10">
+        <v>24.64141719724684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.21160380626332</v>
+        <v>24.8772591114603</v>
       </c>
       <c r="C11">
-        <v>16.20653214752532</v>
+        <v>16.27846767896875</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.596516574306889</v>
+        <v>12.50277466352213</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>42.7711305767399</v>
       </c>
       <c r="G11">
-        <v>23.82000964267766</v>
+        <v>2.041207169731352</v>
       </c>
       <c r="H11">
-        <v>24.67901636721051</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.92219685046437</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.806734045614775</v>
       </c>
       <c r="K11">
-        <v>20.48200825213748</v>
+        <v>21.49110883988889</v>
       </c>
       <c r="L11">
-        <v>11.61415466924899</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>17.83893565695084</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>19.72243699602503</v>
+      </c>
+      <c r="N11">
+        <v>11.39528956610592</v>
+      </c>
+      <c r="O11">
+        <v>25.22865601838959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.52276922905056</v>
+        <v>25.21959298634147</v>
       </c>
       <c r="C12">
-        <v>16.42684801971355</v>
+        <v>16.50030583582996</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.667592389854832</v>
+        <v>12.60735531967055</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>43.21613777087079</v>
       </c>
       <c r="G12">
-        <v>24.0980345324177</v>
+        <v>2.038607027215768</v>
       </c>
       <c r="H12">
-        <v>24.9017889345216</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>20.03781245040662</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.786620374835857</v>
       </c>
       <c r="K12">
-        <v>20.75123703547353</v>
+        <v>21.78290377413246</v>
       </c>
       <c r="L12">
-        <v>11.77832219546974</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>18.07521165414708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19.98890146653692</v>
+      </c>
+      <c r="N12">
+        <v>11.31767413595536</v>
+      </c>
+      <c r="O12">
+        <v>25.45385860223233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.45598976695658</v>
+        <v>25.14611580972103</v>
       </c>
       <c r="C13">
-        <v>16.37954507512344</v>
+        <v>16.45268622279094</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.65226139871424</v>
+        <v>12.58485825538255</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>43.12030088312474</v>
       </c>
       <c r="G13">
-        <v>24.03807249846189</v>
+        <v>2.039166786548515</v>
       </c>
       <c r="H13">
-        <v>24.85363660468239</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>20.01268981492416</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.790942791180306</v>
       </c>
       <c r="K13">
-        <v>20.693448246934</v>
+        <v>21.7202733733437</v>
       </c>
       <c r="L13">
-        <v>11.74307121056826</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>18.02448939902487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>19.93171848738018</v>
+      </c>
+      <c r="N13">
+        <v>11.3343782217912</v>
+      </c>
+      <c r="O13">
+        <v>25.40522991421004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.23731002557998</v>
+        <v>24.90553634500343</v>
       </c>
       <c r="C14">
-        <v>16.2247237252149</v>
+        <v>16.29678950677954</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.602353438340829</v>
+        <v>12.51139034023059</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>42.80774313653129</v>
       </c>
       <c r="G14">
-        <v>23.84284506294728</v>
+        <v>2.040993146875192</v>
       </c>
       <c r="H14">
-        <v>24.69726571315642</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.93160866610155</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.805075040688413</v>
       </c>
       <c r="K14">
-        <v>20.50424574962358</v>
+        <v>21.51521118458915</v>
       </c>
       <c r="L14">
-        <v>11.62770853249387</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>17.85844836855765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>19.74445175223767</v>
+      </c>
+      <c r="N14">
+        <v>11.38889874029662</v>
+      </c>
+      <c r="O14">
+        <v>25.2471263620402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.10266910879248</v>
+        <v>24.75743713294242</v>
       </c>
       <c r="C15">
-        <v>16.12946059445807</v>
+        <v>16.20083526868716</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.57185204708362</v>
+        <v>12.46631303420812</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>42.61628229990783</v>
       </c>
       <c r="G15">
-        <v>23.72350770638323</v>
+        <v>2.042112569522811</v>
       </c>
       <c r="H15">
-        <v>24.60199148859332</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>19.88259138149982</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.813758985892933</v>
       </c>
       <c r="K15">
-        <v>20.38778133766544</v>
+        <v>21.38897811123071</v>
       </c>
       <c r="L15">
-        <v>11.55673459188512</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>17.7562604327669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19.62914281874906</v>
+      </c>
+      <c r="N15">
+        <v>11.42232919076564</v>
+      </c>
+      <c r="O15">
+        <v>25.15065435975868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.32032265282168</v>
+        <v>23.89728024261123</v>
       </c>
       <c r="C16">
-        <v>15.57681768535932</v>
+        <v>15.64374878907006</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.398104428587033</v>
+        <v>12.20686394437013</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>41.51894384300071</v>
       </c>
       <c r="G16">
-        <v>23.04331295423903</v>
+        <v>2.048541059564101</v>
       </c>
       <c r="H16">
-        <v>24.063675060373</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>19.6113974789902</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.86394310756037</v>
       </c>
       <c r="K16">
-        <v>19.71146701434652</v>
+        <v>20.65584318795878</v>
       </c>
       <c r="L16">
-        <v>11.14514867512693</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.16314121491008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>18.95900347852514</v>
+      </c>
+      <c r="N16">
+        <v>11.61446752628579</v>
+      </c>
+      <c r="O16">
+        <v>24.60343085036217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.83060937989896</v>
+        <v>23.35920909766638</v>
       </c>
       <c r="C17">
-        <v>15.23165080436275</v>
+        <v>15.29543859983869</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.292440489297919</v>
+        <v>12.04673665749307</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>40.84565121173353</v>
       </c>
       <c r="G17">
-        <v>22.62925344372478</v>
+        <v>2.052499344047033</v>
       </c>
       <c r="H17">
-        <v>23.74015639541004</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>19.45345576694045</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.895102427594527</v>
       </c>
       <c r="K17">
-        <v>19.28848909518109</v>
+        <v>20.19724578992387</v>
       </c>
       <c r="L17">
-        <v>10.88821344241915</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>16.79244690064462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>18.53943153213625</v>
+      </c>
+      <c r="N17">
+        <v>11.73286691031209</v>
+      </c>
+      <c r="O17">
+        <v>24.27267729736928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.54528968192588</v>
+        <v>23.04584176946232</v>
       </c>
       <c r="C18">
-        <v>15.03081296072136</v>
+        <v>15.09264445604979</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.232003866105901</v>
+        <v>11.95430056189333</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>40.45837027725092</v>
       </c>
       <c r="G18">
-        <v>22.39226144555506</v>
+        <v>2.054782381663445</v>
       </c>
       <c r="H18">
-        <v>23.5565052087607</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>19.36561752768232</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.913161028664529</v>
       </c>
       <c r="K18">
-        <v>19.04218200322748</v>
+        <v>19.93016630168006</v>
       </c>
       <c r="L18">
-        <v>10.75697842370309</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>16.57667469266213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18.29494872339014</v>
+      </c>
+      <c r="N18">
+        <v>11.80117243136761</v>
+      </c>
+      <c r="O18">
+        <v>24.08423477824675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.4480530627608</v>
+        <v>22.93906822206902</v>
       </c>
       <c r="C19">
-        <v>14.96241182879362</v>
+        <v>15.02355591058851</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.211599187626726</v>
+        <v>11.92294768421566</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>40.32724280327123</v>
       </c>
       <c r="G19">
-        <v>22.31221886216421</v>
+        <v>2.05555655547608</v>
       </c>
       <c r="H19">
-        <v>23.49473749421952</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>19.33638464294731</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.919298790173004</v>
       </c>
       <c r="K19">
-        <v>18.95826302983847</v>
+        <v>19.83916469888443</v>
       </c>
       <c r="L19">
-        <v>10.7174042751142</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>16.50317422086234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>18.21162475080474</v>
+      </c>
+      <c r="N19">
+        <v>11.82433583100094</v>
+      </c>
+      <c r="O19">
+        <v>24.02073856202423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.88311660308638</v>
+        <v>23.4168881684286</v>
       </c>
       <c r="C20">
-        <v>15.26863205212016</v>
+        <v>15.33276991802882</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.303653555294638</v>
+        <v>12.06381761860446</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>40.91732712111167</v>
       </c>
       <c r="G20">
-        <v>22.67321000660151</v>
+        <v>2.052077343204367</v>
       </c>
       <c r="H20">
-        <v>23.77434332008324</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>19.4699558126989</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.891771320910415</v>
       </c>
       <c r="K20">
-        <v>19.33382738875362</v>
+        <v>20.24640521807999</v>
       </c>
       <c r="L20">
-        <v>10.91573668765823</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>16.83217172901833</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>18.58442131588891</v>
+      </c>
+      <c r="N20">
+        <v>11.72024209418545</v>
+      </c>
+      <c r="O20">
+        <v>24.30770005947848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.30168567950924</v>
+        <v>24.97635363902972</v>
       </c>
       <c r="C21">
-        <v>16.27028792595993</v>
+        <v>16.34267635818619</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.616998277813725</v>
+        <v>12.53298558748061</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>42.89955102120421</v>
       </c>
       <c r="G21">
-        <v>23.90013680771385</v>
+        <v>2.040456555614404</v>
       </c>
       <c r="H21">
-        <v>24.7430895856819</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.95528875387189</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.800918312568552</v>
       </c>
       <c r="K21">
-        <v>20.5599380814392</v>
+        <v>21.57557315114023</v>
       </c>
       <c r="L21">
-        <v>11.66165791656614</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>17.9073190127558</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>19.79958184681171</v>
+      </c>
+      <c r="N21">
+        <v>11.37287749417842</v>
+      </c>
+      <c r="O21">
+        <v>25.29348771731998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.19761096779112</v>
+        <v>25.96237804948969</v>
       </c>
       <c r="C22">
-        <v>16.90551547684917</v>
+        <v>16.98185943246946</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.824855635926687</v>
+        <v>12.83625715460033</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>44.19463168147141</v>
       </c>
       <c r="G22">
-        <v>24.71291337283599</v>
+        <v>2.03289676860995</v>
       </c>
       <c r="H22">
-        <v>25.39881699418281</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>20.30120604129819</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.742771433728414</v>
       </c>
       <c r="K22">
-        <v>21.3355100996051</v>
+        <v>22.41606266486049</v>
       </c>
       <c r="L22">
-        <v>12.13513623661533</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>18.5882426055087</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20.5666606803318</v>
+      </c>
+      <c r="N22">
+        <v>11.14745334511621</v>
+      </c>
+      <c r="O22">
+        <v>25.95429974273323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.72222574848042</v>
+        <v>25.43908199159625</v>
       </c>
       <c r="C23">
-        <v>16.56820028371752</v>
+        <v>16.64257094300908</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.713632572777223</v>
+        <v>12.674717985624</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>43.50345606790312</v>
       </c>
       <c r="G23">
-        <v>24.27808204518456</v>
+        <v>2.036929465622669</v>
       </c>
       <c r="H23">
-        <v>25.04672073619657</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>20.11385830342591</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.773691825592671</v>
       </c>
       <c r="K23">
-        <v>20.92387073565678</v>
+        <v>21.96999403524392</v>
       </c>
       <c r="L23">
-        <v>11.88367132444768</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>18.22675696926557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>20.15968451977162</v>
+      </c>
+      <c r="N23">
+        <v>11.26763087678626</v>
+      </c>
+      <c r="O23">
+        <v>25.60006538183998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.85938986603752</v>
+        <v>23.39082400647487</v>
       </c>
       <c r="C24">
-        <v>15.25192030756013</v>
+        <v>15.3159003700831</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.298583159810088</v>
+        <v>12.0560964851978</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>40.88492304835001</v>
       </c>
       <c r="G24">
-        <v>22.65333395861528</v>
+        <v>2.05226810661107</v>
       </c>
       <c r="H24">
-        <v>23.75888012019173</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>19.46248692956824</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.89327686367187</v>
       </c>
       <c r="K24">
-        <v>19.31333971215652</v>
+        <v>20.22419092435115</v>
       </c>
       <c r="L24">
-        <v>10.90329884939478</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>16.81422041520514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>18.56409161617343</v>
+      </c>
+      <c r="N24">
+        <v>11.72594903544478</v>
+      </c>
+      <c r="O24">
+        <v>24.29186094083649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.70986509723512</v>
+        <v>21.03232532204226</v>
       </c>
       <c r="C25">
-        <v>13.74338294733507</v>
+        <v>13.79051846160662</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.863886407147283</v>
+        <v>11.37634587674998</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>38.06048784399509</v>
       </c>
       <c r="G25">
-        <v>20.94550923108009</v>
+        <v>2.069065344100816</v>
       </c>
       <c r="H25">
-        <v>22.46226182797989</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>18.87366878087976</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.027496624849818</v>
       </c>
       <c r="K25">
-        <v>17.46009282332797</v>
+        <v>18.21405197349053</v>
       </c>
       <c r="L25">
-        <v>10.026516727723</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>15.19228367805578</v>
+        <v>16.95052131496634</v>
+      </c>
+      <c r="N25">
+        <v>12.22831840414023</v>
+      </c>
+      <c r="O25">
+        <v>22.94945948094009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.16063991245427</v>
+        <v>20.10128251287415</v>
       </c>
       <c r="C2">
-        <v>12.58127458139622</v>
+        <v>10.66047773286072</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.86779479506343</v>
+        <v>7.518932790363762</v>
       </c>
       <c r="F2">
-        <v>35.98617252036516</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.081750649791241</v>
+        <v>18.75063557684912</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.590701480090541</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.130841555692908</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.61861141121192</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.033137082579596</v>
       </c>
       <c r="M2">
-        <v>15.81201697436828</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.60646736963352</v>
+        <v>11.93679992478211</v>
       </c>
       <c r="O2">
-        <v>22.01856630613024</v>
+        <v>12.11573483238979</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.80483606058151</v>
+        <v>18.76516190847951</v>
       </c>
       <c r="C3">
-        <v>11.70583061699219</v>
+        <v>10.41588356541597</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.51985993362299</v>
+        <v>7.522315009467094</v>
       </c>
       <c r="F3">
-        <v>34.58847505191148</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.090589611128761</v>
+        <v>18.16993655890157</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.626168481095971</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.203738009192213</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.46262409093087</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.782376609969222</v>
       </c>
       <c r="M3">
-        <v>15.0135416675442</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.86858493543893</v>
+        <v>11.99624946469822</v>
       </c>
       <c r="O3">
-        <v>21.42325761264478</v>
+        <v>12.04018347549062</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.9283771878453</v>
+        <v>17.89524590443941</v>
       </c>
       <c r="C4">
-        <v>11.14005164290267</v>
+        <v>10.26332321223049</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.30529755374525</v>
+        <v>7.530263397470284</v>
       </c>
       <c r="F4">
-        <v>33.73643311196197</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.096149120037425</v>
+        <v>17.83257401740709</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.654025663707633</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.249924922488688</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.71513573999682</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.626834527764504</v>
       </c>
       <c r="M4">
-        <v>14.51124691962112</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.03263154449494</v>
+        <v>12.03661877823745</v>
       </c>
       <c r="O4">
-        <v>21.07523042977773</v>
+        <v>12.00728629252621</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.56002907332123</v>
+        <v>17.52823406419947</v>
       </c>
       <c r="C5">
-        <v>10.90229607224969</v>
+        <v>10.2006244285472</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.21774353556917</v>
+        <v>7.534932618472083</v>
       </c>
       <c r="F5">
-        <v>33.39114662976473</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.0984497142936</v>
+        <v>17.70005713888266</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.666845807877174</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.269108516421662</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.400929868616</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.563148268649199</v>
       </c>
       <c r="M5">
-        <v>14.30376888393272</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.10029444193524</v>
+        <v>12.05402137831258</v>
       </c>
       <c r="O5">
-        <v>20.93779914999766</v>
+        <v>11.99715804906692</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.49818626479423</v>
+        <v>17.46653453369077</v>
       </c>
       <c r="C6">
-        <v>10.86237973778026</v>
+        <v>10.19018346325679</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.20320166981375</v>
+        <v>7.535792950431754</v>
       </c>
       <c r="F6">
-        <v>33.33394040114717</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.098833892578448</v>
+        <v>17.67835595579837</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.669061501432239</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.272315896221329</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.34817321377119</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.552557907345092</v>
       </c>
       <c r="M6">
-        <v>14.26915665910155</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.11157980416567</v>
+        <v>12.05696796971071</v>
       </c>
       <c r="O6">
-        <v>20.9152437421991</v>
+        <v>11.99567070355241</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.92345495534659</v>
+        <v>17.89034699978297</v>
       </c>
       <c r="C7">
-        <v>11.13687444223153</v>
+        <v>10.26247968359507</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.30411708875638</v>
+        <v>7.530320639162801</v>
       </c>
       <c r="F7">
-        <v>33.73176811993417</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.096180002489473</v>
+        <v>17.83076659866236</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.654192695671519</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.250182169095257</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.71093726298357</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.625976723368149</v>
       </c>
       <c r="M7">
-        <v>14.50845974521313</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.03354073852517</v>
+        <v>12.03684964850997</v>
       </c>
       <c r="O7">
-        <v>21.07335921224004</v>
+        <v>12.00713658639166</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.70221211074303</v>
+        <v>19.65083266364403</v>
       </c>
       <c r="C8">
-        <v>12.2852284785471</v>
+        <v>10.57667554321478</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.748086080541</v>
+        <v>7.518852726899309</v>
       </c>
       <c r="F8">
-        <v>35.50318497118599</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.084771957937854</v>
+        <v>18.54651585664685</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.601631545617546</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.1556814862219</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>16.22778113452787</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.94705558452531</v>
       </c>
       <c r="M8">
-        <v>15.53932629965812</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.69622033295471</v>
+        <v>11.95648276952518</v>
       </c>
       <c r="O8">
-        <v>21.80967050708788</v>
+        <v>12.08681804069909</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.84734822042805</v>
+        <v>22.71286574956928</v>
       </c>
       <c r="C9">
-        <v>14.31740988633043</v>
+        <v>11.17110660430566</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.60677553002986</v>
+        <v>7.544972596479464</v>
       </c>
       <c r="F9">
-        <v>39.01156795220329</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.063364115518942</v>
+        <v>20.09552886913037</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.549586705314628</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.98158595590214</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18.90870534190806</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.560493268149991</v>
       </c>
       <c r="M9">
-        <v>17.45737981001018</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.05790452633445</v>
+        <v>11.83054952652712</v>
       </c>
       <c r="O9">
-        <v>23.39264999480403</v>
+        <v>12.354785861384</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.95815628716365</v>
+        <v>24.72854778324715</v>
       </c>
       <c r="C10">
-        <v>15.68316399096211</v>
+        <v>11.5911018080543</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.22508874483596</v>
+        <v>7.596465778751867</v>
       </c>
       <c r="F10">
-        <v>41.59576665285748</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.048090181665981</v>
+        <v>21.31262243760962</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.546342506544525</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.860406149229633</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>20.70772836073812</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.996984158064441</v>
       </c>
       <c r="M10">
-        <v>19.0064551758293</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.60098435178564</v>
+        <v>11.75877189250359</v>
       </c>
       <c r="O10">
-        <v>24.64141719724684</v>
+        <v>12.62539798349626</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.8772591114603</v>
+        <v>25.59560317323799</v>
       </c>
       <c r="C11">
-        <v>16.27846767896875</v>
+        <v>11.77788131246137</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.50277466352213</v>
+        <v>7.627445222010255</v>
       </c>
       <c r="F11">
-        <v>42.7711305767399</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.041207169731352</v>
+        <v>21.88146767477554</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.553315177508763</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.806734045614775</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>21.49110883988889</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.191737129683812</v>
       </c>
       <c r="M11">
-        <v>19.72243699602503</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.39528956610592</v>
+        <v>11.73096236998844</v>
       </c>
       <c r="O11">
-        <v>25.22865601838959</v>
+        <v>12.76550173844189</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.21959298634147</v>
+        <v>25.91683323010204</v>
       </c>
       <c r="C12">
-        <v>16.50030583582996</v>
+        <v>11.84794598069958</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.60735531967055</v>
+        <v>7.640304333528665</v>
       </c>
       <c r="F12">
-        <v>43.21613777087079</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.038607027215768</v>
+        <v>22.09890495245764</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.557240917051518</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.786620374835857</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>21.78290377413246</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.26488764003259</v>
       </c>
       <c r="M12">
-        <v>19.98890146653692</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.31767413595536</v>
+        <v>11.72115812229212</v>
       </c>
       <c r="O12">
-        <v>25.45385860223233</v>
+        <v>12.82106563598521</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.14611580972103</v>
+        <v>25.8479654677764</v>
       </c>
       <c r="C13">
-        <v>16.45268622279094</v>
+        <v>11.83288660175239</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.58485825538255</v>
+        <v>7.637484092367537</v>
       </c>
       <c r="F13">
-        <v>43.12030088312474</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.039166786548515</v>
+        <v>22.05198803584601</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.55633714972984</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.790942791180306</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>21.7202733733437</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.249160689909676</v>
       </c>
       <c r="M13">
-        <v>19.93171848738018</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.3343782217912</v>
+        <v>11.72323682610476</v>
       </c>
       <c r="O13">
-        <v>25.40522991421004</v>
+        <v>12.80898641081638</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.90553634500343</v>
+        <v>25.62217295633834</v>
       </c>
       <c r="C14">
-        <v>16.29678950677954</v>
+        <v>11.78365916316924</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.51139034023059</v>
+        <v>7.628480314201193</v>
       </c>
       <c r="F14">
-        <v>42.80774313653129</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.040993146875192</v>
+        <v>21.89931655494803</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.553611986266418</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.805075040688413</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>21.51521118458915</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.197767514857853</v>
       </c>
       <c r="M14">
-        <v>19.74445175223767</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.38889874029662</v>
+        <v>11.730141026808</v>
       </c>
       <c r="O14">
-        <v>25.2471263620402</v>
+        <v>12.77002238010099</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.75743713294242</v>
+        <v>25.48294532165542</v>
       </c>
       <c r="C15">
-        <v>16.20083526868716</v>
+        <v>11.75341798467395</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.46631303420812</v>
+        <v>7.623113318899474</v>
       </c>
       <c r="F15">
-        <v>42.61628229990783</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>2.042112569522811</v>
+        <v>21.80606064772135</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.55211222790515</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.813758985892933</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>21.38897811123071</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.166208450137361</v>
       </c>
       <c r="M15">
-        <v>19.62914281874906</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.42232919076564</v>
+        <v>11.7344656029217</v>
       </c>
       <c r="O15">
-        <v>25.15065435975868</v>
+        <v>12.74648437308957</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.89728024261123</v>
+        <v>24.67088563495097</v>
       </c>
       <c r="C16">
-        <v>15.64374878907006</v>
+        <v>11.57880490568132</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.20686394437013</v>
+        <v>7.594596814715484</v>
       </c>
       <c r="F16">
-        <v>41.51894384300071</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>2.048541059564101</v>
+        <v>21.27573891997413</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.546062849887954</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.86394310756037</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>20.65584318795878</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.984175439940799</v>
       </c>
       <c r="M16">
-        <v>18.95900347852514</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.61446752628579</v>
+        <v>11.7606893030173</v>
       </c>
       <c r="O16">
-        <v>24.60343085036217</v>
+        <v>12.61658975665025</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.35920909766638</v>
+        <v>24.15998408146201</v>
       </c>
       <c r="C17">
-        <v>15.29543859983869</v>
+        <v>11.47055301816394</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.04673665749307</v>
+        <v>7.579067998363041</v>
       </c>
       <c r="F17">
-        <v>40.84565121173353</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.052499344047033</v>
+        <v>20.95417676059308</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.544565672422705</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.895102427594527</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>20.19724578992387</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.871489924281041</v>
       </c>
       <c r="M17">
-        <v>18.53943153213625</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.73286691031209</v>
+        <v>11.77803798286337</v>
       </c>
       <c r="O17">
-        <v>24.27267729736928</v>
+        <v>12.54130738874239</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.04584176946232</v>
+        <v>23.86142703992931</v>
       </c>
       <c r="C18">
-        <v>15.09264445604979</v>
+        <v>11.40788935985812</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.95430056189333</v>
+        <v>7.570844980840021</v>
       </c>
       <c r="F18">
-        <v>40.45837027725092</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.054782381663445</v>
+        <v>20.77066024542536</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.54449550947459</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.913161028664529</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>19.93016630168006</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.806320155881083</v>
       </c>
       <c r="M18">
-        <v>18.29494872339014</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.80117243136761</v>
+        <v>11.78847036994852</v>
       </c>
       <c r="O18">
-        <v>24.08423477824675</v>
+        <v>12.49960395523195</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.93906822206902</v>
+        <v>23.75953146268177</v>
       </c>
       <c r="C19">
-        <v>15.02355591058851</v>
+        <v>11.38660539587655</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.92294768421566</v>
+        <v>7.568181240220611</v>
       </c>
       <c r="F19">
-        <v>40.32724280327123</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.05555655547608</v>
+        <v>20.70877661179824</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.544605460456213</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.919298790173004</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>19.83916469888443</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.784195318229105</v>
       </c>
       <c r="M19">
-        <v>18.21162475080474</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.82433583100094</v>
+        <v>11.79207965699168</v>
       </c>
       <c r="O19">
-        <v>24.02073856202423</v>
+        <v>12.4857560298278</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.4168881684286</v>
+        <v>24.21485636129662</v>
       </c>
       <c r="C20">
-        <v>15.33276991802882</v>
+        <v>11.48211839106788</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.06381761860446</v>
+        <v>7.580647408012867</v>
       </c>
       <c r="F20">
-        <v>40.91732712111167</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.052077343204367</v>
+        <v>20.98826000234981</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.544642676897061</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.891771320910415</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>20.24640521807999</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.883522730993861</v>
       </c>
       <c r="M20">
-        <v>18.58442131588891</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.72024209418545</v>
+        <v>11.77614399691102</v>
       </c>
       <c r="O20">
-        <v>24.30770005947848</v>
+        <v>12.54915554027893</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.97635363902972</v>
+        <v>25.6886859587763</v>
       </c>
       <c r="C21">
-        <v>16.34267635818619</v>
+        <v>11.79813686598118</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.53298558748061</v>
+        <v>7.631094011416716</v>
       </c>
       <c r="F21">
-        <v>42.89955102120421</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.040456555614404</v>
+        <v>21.94410598301612</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.554376986878999</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.800918312568552</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>21.57557315114023</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.212879532558668</v>
       </c>
       <c r="M21">
-        <v>19.79958184681171</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.37287749417842</v>
+        <v>11.72809312598975</v>
       </c>
       <c r="O21">
-        <v>25.29348771731998</v>
+        <v>12.78139848117095</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.96237804948969</v>
+        <v>26.61053885209471</v>
       </c>
       <c r="C22">
-        <v>16.98185943246946</v>
+        <v>12.00077920514941</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.83625715460033</v>
+        <v>7.67065567696423</v>
       </c>
       <c r="F22">
-        <v>44.19463168147141</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>2.03289676860995</v>
+        <v>22.58056826957932</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.568263589197826</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.742771433728414</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>22.41606266486049</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.424628790587246</v>
       </c>
       <c r="M22">
-        <v>20.5666606803318</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.14745334511621</v>
+        <v>11.70093962637282</v>
       </c>
       <c r="O22">
-        <v>25.95429974273323</v>
+        <v>12.94783409710468</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.43908199159625</v>
+        <v>26.12229158561868</v>
       </c>
       <c r="C23">
-        <v>16.64257094300908</v>
+        <v>11.8929966474589</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.674717985624</v>
+        <v>7.648924529710903</v>
       </c>
       <c r="F23">
-        <v>43.50345606790312</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.036929465622669</v>
+        <v>22.23984674134969</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.560140241361377</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.773691825592671</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>21.96999403524392</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.311949425838421</v>
       </c>
       <c r="M23">
-        <v>20.15968451977162</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.26763087678626</v>
+        <v>11.71503259612703</v>
       </c>
       <c r="O23">
-        <v>25.60006538183998</v>
+        <v>12.85764474422014</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.39082400647487</v>
+        <v>24.19006366228142</v>
       </c>
       <c r="C24">
-        <v>15.3159003700831</v>
+        <v>11.47689101594298</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.0560964851978</v>
+        <v>7.579931165075239</v>
       </c>
       <c r="F24">
-        <v>40.88492304835001</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.05226810661107</v>
+        <v>20.97284673976111</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.544605406017575</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.89327686367187</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>20.22419092435115</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.878083895477664</v>
       </c>
       <c r="M24">
-        <v>18.56409161617343</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.72594903544478</v>
+        <v>11.77699884241761</v>
       </c>
       <c r="O24">
-        <v>24.29186094083649</v>
+        <v>12.54560248274498</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.03232532204226</v>
+        <v>21.92588706479065</v>
       </c>
       <c r="C25">
-        <v>13.79051846160662</v>
+        <v>11.01299898461529</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.37634587674998</v>
+        <v>7.532421494393632</v>
       </c>
       <c r="F25">
-        <v>38.06048784399509</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.069065344100816</v>
+        <v>19.6618942023379</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.557805984863973</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.027496624849818</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>18.21405197349053</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.396757315609445</v>
       </c>
       <c r="M25">
-        <v>16.95052131496634</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.22831840414023</v>
+        <v>11.86108423991362</v>
       </c>
       <c r="O25">
-        <v>22.94945948094009</v>
+        <v>12.26971199467024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.10128251287415</v>
+        <v>14.23018405348877</v>
       </c>
       <c r="C2">
-        <v>10.66047773286072</v>
+        <v>11.44452154835927</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.518932790363762</v>
+        <v>12.33771884286134</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>18.75063557684912</v>
+        <v>22.95969453361531</v>
       </c>
       <c r="H2">
-        <v>7.590701480090541</v>
+        <v>12.80026029692002</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.033137082579596</v>
+        <v>9.493625208932086</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.93679992478211</v>
+        <v>16.7289679979256</v>
       </c>
       <c r="O2">
-        <v>12.11573483238979</v>
+        <v>18.71072748547778</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.76516190847951</v>
+        <v>13.70659715882156</v>
       </c>
       <c r="C3">
-        <v>10.41588356541597</v>
+        <v>11.3741243488934</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.522315009467094</v>
+        <v>12.37880254957037</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>18.16993655890157</v>
+        <v>22.97573783868756</v>
       </c>
       <c r="H3">
-        <v>7.626168481095971</v>
+        <v>12.84617873965466</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.782376609969222</v>
+        <v>9.465950482281782</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.99624946469822</v>
+        <v>16.76114993473243</v>
       </c>
       <c r="O3">
-        <v>12.04018347549062</v>
+        <v>18.77689615497752</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.89524590443941</v>
+        <v>13.37595319360735</v>
       </c>
       <c r="C4">
-        <v>10.26332321223049</v>
+        <v>11.33102180040358</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.530263397470284</v>
+        <v>12.40640735468651</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>17.83257401740709</v>
+        <v>22.99532817282422</v>
       </c>
       <c r="H4">
-        <v>7.654025663707633</v>
+        <v>12.87672416326989</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.626834527764504</v>
+        <v>9.450517175909466</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.03661877823745</v>
+        <v>16.78271443504787</v>
       </c>
       <c r="O4">
-        <v>12.00728629252621</v>
+        <v>18.8223937321975</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.52823406419947</v>
+        <v>13.2391084544898</v>
       </c>
       <c r="C5">
-        <v>10.2006244285472</v>
+        <v>11.3134977869644</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.534932618472083</v>
+        <v>12.41825424309139</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>17.70005713888266</v>
+        <v>23.00575138542714</v>
       </c>
       <c r="H5">
-        <v>7.666845807877174</v>
+        <v>12.8897624425599</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.563148268649199</v>
+        <v>9.444624618453009</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.05402137831258</v>
+        <v>16.79195661868225</v>
       </c>
       <c r="O5">
-        <v>11.99715804906692</v>
+        <v>18.84215496447876</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.46653453369077</v>
+        <v>13.21626458245231</v>
       </c>
       <c r="C6">
-        <v>10.19018346325679</v>
+        <v>11.31059068278503</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.535792950431754</v>
+        <v>12.42025749265411</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>17.67835595579837</v>
+        <v>23.00762920941056</v>
       </c>
       <c r="H6">
-        <v>7.669061501432239</v>
+        <v>12.89196310578516</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.552557907345092</v>
+        <v>9.443670246993795</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.05696796971071</v>
+        <v>16.79351874529294</v>
       </c>
       <c r="O6">
-        <v>11.99567070355241</v>
+        <v>18.84550990513092</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.89034699978297</v>
+        <v>13.37411590168558</v>
       </c>
       <c r="C7">
-        <v>10.26247968359507</v>
+        <v>11.33078528775911</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.530320639162801</v>
+        <v>12.40656470664603</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>17.83076659866236</v>
+        <v>22.99545887827092</v>
       </c>
       <c r="H7">
-        <v>7.654192695671519</v>
+        <v>12.87689761070284</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.625976723368149</v>
+        <v>9.450436095035759</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.03684964850997</v>
+        <v>16.78283723732118</v>
       </c>
       <c r="O7">
-        <v>12.00713658639166</v>
+        <v>18.82265530225166</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.65083266364403</v>
+        <v>14.05166517306092</v>
       </c>
       <c r="C8">
-        <v>10.57667554321478</v>
+        <v>11.42022940474122</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.518852726899309</v>
+        <v>12.35139035588137</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>18.54651585664685</v>
+        <v>22.96320001199311</v>
       </c>
       <c r="H8">
-        <v>7.601631545617546</v>
+        <v>12.81560467114632</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.94705558452531</v>
+        <v>9.48376223760908</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.95648276952518</v>
+        <v>16.73969017914451</v>
       </c>
       <c r="O8">
-        <v>12.08681804069909</v>
+        <v>18.732529406857</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.71286574956928</v>
+        <v>15.29995892473292</v>
       </c>
       <c r="C9">
-        <v>11.17110660430566</v>
+        <v>11.59615082644726</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.544972596479464</v>
+        <v>12.26209671238581</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>20.09552886913037</v>
+        <v>22.97751611594684</v>
       </c>
       <c r="H9">
-        <v>7.549586705314628</v>
+        <v>12.71408753534676</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.560493268149991</v>
+        <v>9.561268292701286</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.83054952652712</v>
+        <v>16.66936854077085</v>
       </c>
       <c r="O9">
-        <v>12.354785861384</v>
+        <v>18.5946016064844</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.72854778324715</v>
+        <v>16.15911893700896</v>
       </c>
       <c r="C10">
-        <v>11.5911018080543</v>
+        <v>11.7251231913968</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.596465778751867</v>
+        <v>12.20804927895291</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>21.31262243760962</v>
+        <v>23.03556340099611</v>
       </c>
       <c r="H10">
-        <v>7.546342506544525</v>
+        <v>12.65091867708315</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.996984158064441</v>
+        <v>9.62530891381712</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.75877189250359</v>
+        <v>16.62637510888124</v>
       </c>
       <c r="O10">
-        <v>12.62539798349626</v>
+        <v>18.51714680488743</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.59560317323799</v>
+        <v>16.53585040884596</v>
       </c>
       <c r="C11">
-        <v>11.77788131246137</v>
+        <v>11.78360861950835</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.627445222010255</v>
+        <v>12.18597761336417</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>21.88146767477554</v>
+        <v>23.07228748362083</v>
       </c>
       <c r="H11">
-        <v>7.553315177508763</v>
+        <v>12.62466656176653</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.191737129683812</v>
+        <v>9.655910308661838</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.73096236998844</v>
+        <v>16.60869097372062</v>
       </c>
       <c r="O11">
-        <v>12.76550173844189</v>
+        <v>18.48713970817006</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.91683323010204</v>
+        <v>16.67637378170925</v>
       </c>
       <c r="C12">
-        <v>11.84794598069958</v>
+        <v>11.80571817126161</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.640304333528665</v>
+        <v>12.1779817764356</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>22.09890495245764</v>
+        <v>23.08767307300378</v>
       </c>
       <c r="H12">
-        <v>7.557240917051518</v>
+        <v>12.61508326521168</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.26488764003259</v>
+        <v>9.667702798624337</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.72115812229212</v>
+        <v>16.60226322992875</v>
       </c>
       <c r="O12">
-        <v>12.82106563598521</v>
+        <v>18.47653175481607</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.8479654677764</v>
+        <v>16.64620616285577</v>
       </c>
       <c r="C13">
-        <v>11.83288660175239</v>
+        <v>11.80095833177606</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.637484092367537</v>
+        <v>12.17968770380683</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>22.05198803584601</v>
+        <v>23.08429383748368</v>
       </c>
       <c r="H13">
-        <v>7.55633714972984</v>
+        <v>12.61713127557715</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.249160689909676</v>
+        <v>9.665154095728031</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.72323682610476</v>
+        <v>16.60363561168001</v>
       </c>
       <c r="O13">
-        <v>12.80898641081638</v>
+        <v>18.47878273361105</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.62217295633834</v>
+        <v>16.54745474349892</v>
       </c>
       <c r="C14">
-        <v>11.78365916316924</v>
+        <v>11.78542840249905</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.628480314201193</v>
+        <v>12.18531252823108</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>21.89931655494803</v>
+        <v>23.0735236612205</v>
       </c>
       <c r="H14">
-        <v>7.553611986266418</v>
+        <v>12.6238709634327</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.197767514857853</v>
+        <v>9.656876427459581</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.730141026808</v>
+        <v>16.60815677454103</v>
       </c>
       <c r="O14">
-        <v>12.77002238010099</v>
+        <v>18.48625183397657</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.48294532165542</v>
+        <v>16.48668541807461</v>
       </c>
       <c r="C15">
-        <v>11.75341798467395</v>
+        <v>11.77591064741013</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.623113318899474</v>
+        <v>12.18880508504825</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>21.80606064772135</v>
+        <v>23.06711903664738</v>
       </c>
       <c r="H15">
-        <v>7.55211222790515</v>
+        <v>12.6280458335201</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.166208450137361</v>
+        <v>9.651832528642521</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.7344656029217</v>
+        <v>16.61096111243595</v>
       </c>
       <c r="O15">
-        <v>12.74648437308957</v>
+        <v>18.49092530389103</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.67088563495097</v>
+        <v>16.13420522794535</v>
       </c>
       <c r="C16">
-        <v>11.57880490568132</v>
+        <v>11.72129636849154</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.594596814715484</v>
+        <v>12.20954237028738</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>21.27573891997413</v>
+        <v>23.03337067744108</v>
       </c>
       <c r="H16">
-        <v>7.546062849887954</v>
+        <v>12.65268434940449</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.984175439940799</v>
+        <v>9.623338023025623</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.7606893030173</v>
+        <v>16.62756846340544</v>
       </c>
       <c r="O16">
-        <v>12.61658975665025</v>
+        <v>18.51921332361127</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.15998408146201</v>
+        <v>15.9142757093399</v>
       </c>
       <c r="C17">
-        <v>11.47055301816394</v>
+        <v>11.6877370889052</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.579067998363041</v>
+        <v>12.22290855854975</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>20.95417676059308</v>
+        <v>23.01530733648405</v>
       </c>
       <c r="H17">
-        <v>7.544565672422705</v>
+        <v>12.66843588827845</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.871489924281041</v>
+        <v>9.606229041547287</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.77803798286337</v>
+        <v>16.63823603597143</v>
       </c>
       <c r="O17">
-        <v>12.54130738874239</v>
+        <v>18.53790846824122</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.86142703992931</v>
+        <v>15.78645597438281</v>
       </c>
       <c r="C18">
-        <v>11.40788935985812</v>
+        <v>11.66841794852676</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.570844980840021</v>
+        <v>12.23083310611219</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>20.77066024542536</v>
+        <v>23.00588942322403</v>
       </c>
       <c r="H18">
-        <v>7.54449550947459</v>
+        <v>12.67772949718548</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.806320155881083</v>
+        <v>9.596527104598602</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.78847036994852</v>
+        <v>16.64454814743445</v>
       </c>
       <c r="O18">
-        <v>12.49960395523195</v>
+        <v>18.54915326871943</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.75953146268177</v>
+        <v>15.74295487945605</v>
       </c>
       <c r="C19">
-        <v>11.38660539587655</v>
+        <v>11.66187428325322</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.568181240220611</v>
+        <v>12.23355685107219</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>20.70877661179824</v>
+        <v>23.00286766078116</v>
       </c>
       <c r="H19">
-        <v>7.544605460456213</v>
+        <v>12.6809162785353</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.784195318229105</v>
+        <v>9.593266220225614</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.79207965699168</v>
+        <v>16.64671563589548</v>
       </c>
       <c r="O19">
-        <v>12.4857560298278</v>
+        <v>18.55304493353448</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.21485636129662</v>
+        <v>15.93782524469164</v>
       </c>
       <c r="C20">
-        <v>11.48211839106788</v>
+        <v>11.69131134317514</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.580647408012867</v>
+        <v>12.22146120611019</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>20.98826000234981</v>
+        <v>23.01712967443562</v>
       </c>
       <c r="H20">
-        <v>7.544642676897061</v>
+        <v>12.66673491405017</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.883522730993861</v>
+        <v>9.608036015841643</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.77614399691102</v>
+        <v>16.63708220161378</v>
       </c>
       <c r="O20">
-        <v>12.54915554027893</v>
+        <v>18.5358674085587</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.6886859587763</v>
+        <v>16.57651921084257</v>
       </c>
       <c r="C21">
-        <v>11.79813686598118</v>
+        <v>11.78999102769871</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.631094011416716</v>
+        <v>12.18365054569341</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>21.94410598301612</v>
+        <v>23.07664703528949</v>
       </c>
       <c r="H21">
-        <v>7.554376986878999</v>
+        <v>12.6218816377096</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.212879532558668</v>
+        <v>9.659302287633091</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.72809312598975</v>
+        <v>16.60682150753188</v>
       </c>
       <c r="O21">
-        <v>12.78139848117095</v>
+        <v>18.48403745967389</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.61053885209471</v>
+        <v>16.98144803546714</v>
       </c>
       <c r="C22">
-        <v>12.00077920514941</v>
+        <v>11.8542595990808</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.67065567696423</v>
+        <v>12.16105066326326</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>22.58056826957932</v>
+        <v>23.12416157565933</v>
       </c>
       <c r="H22">
-        <v>7.568263589197826</v>
+        <v>12.59465331516454</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.424628790587246</v>
+        <v>9.693995828731836</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.70093962637282</v>
+        <v>16.58861120643608</v>
       </c>
       <c r="O22">
-        <v>12.94783409710468</v>
+        <v>18.45456618946659</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.12229158561868</v>
+        <v>16.76650535519022</v>
       </c>
       <c r="C23">
-        <v>11.8929966474589</v>
+        <v>11.81998241211365</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.648924529710903</v>
+        <v>12.17291924811265</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>22.23984674134969</v>
+        <v>23.09801602520545</v>
       </c>
       <c r="H23">
-        <v>7.560140241361377</v>
+        <v>12.60899451066858</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.311949425838421</v>
+        <v>9.6753728542504</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.71503259612703</v>
+        <v>16.59818722046466</v>
       </c>
       <c r="O23">
-        <v>12.85764474422014</v>
+        <v>18.46989166926246</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.19006366228142</v>
+        <v>15.92718278765736</v>
       </c>
       <c r="C24">
-        <v>11.47689101594298</v>
+        <v>11.68969550129793</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.579931165075239</v>
+        <v>12.22211480616378</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>20.97284673976111</v>
+        <v>23.01630278317592</v>
       </c>
       <c r="H24">
-        <v>7.544605406017575</v>
+        <v>12.66750318368727</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.878083895477664</v>
+        <v>9.607218664095422</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.77699884241761</v>
+        <v>16.637603291939</v>
       </c>
       <c r="O24">
-        <v>12.54560248274498</v>
+        <v>18.53678862466703</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.92588706479065</v>
+        <v>14.97186388986529</v>
       </c>
       <c r="C25">
-        <v>11.01299898461529</v>
+        <v>11.54856479861774</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.532421494393632</v>
+        <v>12.284225804324</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>19.6618942023379</v>
+        <v>22.96530361275688</v>
       </c>
       <c r="H25">
-        <v>7.557805984863973</v>
+        <v>12.73954796652408</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.396757315609445</v>
+        <v>9.539030599380323</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.86108423991362</v>
+        <v>16.68686668350165</v>
       </c>
       <c r="O25">
-        <v>12.26971199467024</v>
+        <v>18.62773631703253</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.23018405348877</v>
+        <v>20.10128251287418</v>
       </c>
       <c r="C2">
-        <v>11.44452154835927</v>
+        <v>10.66047773286064</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.33771884286134</v>
+        <v>7.518932790363649</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>22.95969453361531</v>
+        <v>18.7506355768491</v>
       </c>
       <c r="H2">
-        <v>12.80026029692002</v>
+        <v>7.590701480090431</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.493625208932086</v>
+        <v>7.033137082579548</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.7289679979256</v>
+        <v>11.93679992478208</v>
       </c>
       <c r="O2">
-        <v>18.71072748547778</v>
+        <v>12.11573483238969</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.70659715882156</v>
+        <v>18.76516190847951</v>
       </c>
       <c r="C3">
-        <v>11.3741243488934</v>
+        <v>10.41588356541595</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.37880254957037</v>
+        <v>7.522315009467098</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>22.97573783868756</v>
+        <v>18.1699365589016</v>
       </c>
       <c r="H3">
-        <v>12.84617873965466</v>
+        <v>7.626168481095967</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.465950482281782</v>
+        <v>6.782376609969222</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.76114993473243</v>
+        <v>11.99624946469822</v>
       </c>
       <c r="O3">
-        <v>18.77689615497752</v>
+        <v>12.04018347549062</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.37595319360735</v>
+        <v>17.8952459044394</v>
       </c>
       <c r="C4">
-        <v>11.33102180040358</v>
+        <v>10.26332321223062</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.40640735468651</v>
+        <v>7.530263397470284</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>22.99532817282422</v>
+        <v>17.83257401740707</v>
       </c>
       <c r="H4">
-        <v>12.87672416326989</v>
+        <v>7.654025663707623</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.450517175909466</v>
+        <v>6.626834527764471</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.78271443504787</v>
+        <v>12.03661877823752</v>
       </c>
       <c r="O4">
-        <v>18.8223937321975</v>
+        <v>12.00728629252618</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.2391084544898</v>
+        <v>17.52823406419952</v>
       </c>
       <c r="C5">
-        <v>11.3134977869644</v>
+        <v>10.20062442854709</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.41825424309139</v>
+        <v>7.534932618471979</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>23.00575138542714</v>
+        <v>17.7000571388826</v>
       </c>
       <c r="H5">
-        <v>12.8897624425599</v>
+        <v>7.666845807877171</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.444624618453009</v>
+        <v>6.563148268649196</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.79195661868225</v>
+        <v>12.05402137831258</v>
       </c>
       <c r="O5">
-        <v>18.84215496447876</v>
+        <v>11.99715804906689</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.21626458245231</v>
+        <v>17.46653453369083</v>
       </c>
       <c r="C6">
-        <v>11.31059068278503</v>
+        <v>10.19018346325654</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.42025749265411</v>
+        <v>7.535792950431699</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>23.00762920941056</v>
+        <v>17.67835595579824</v>
       </c>
       <c r="H6">
-        <v>12.89196310578516</v>
+        <v>7.669061501432184</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.443670246993795</v>
+        <v>6.552557907345093</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.79351874529294</v>
+        <v>12.05696796971067</v>
       </c>
       <c r="O6">
-        <v>18.84550990513092</v>
+        <v>11.99567070355234</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.37411590168558</v>
+        <v>17.89034699978297</v>
       </c>
       <c r="C7">
-        <v>11.33078528775911</v>
+        <v>10.26247968359506</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.40656470664603</v>
+        <v>7.530320639162799</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>22.99545887827092</v>
+        <v>17.83076659866233</v>
       </c>
       <c r="H7">
-        <v>12.87689761070284</v>
+        <v>7.654192695671519</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.450436095035759</v>
+        <v>6.625976723368137</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.78283723732118</v>
+        <v>12.03684964850993</v>
       </c>
       <c r="O7">
-        <v>18.82265530225166</v>
+        <v>12.00713658639162</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.05166517306092</v>
+        <v>19.65083266364405</v>
       </c>
       <c r="C8">
-        <v>11.42022940474122</v>
+        <v>10.57667554321465</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.35139035588137</v>
+        <v>7.518852726899265</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>22.96320001199311</v>
+        <v>18.54651585664692</v>
       </c>
       <c r="H8">
-        <v>12.81560467114632</v>
+        <v>7.601631545617494</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.48376223760908</v>
+        <v>6.947055584525295</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.73969017914451</v>
+        <v>11.95648276952518</v>
       </c>
       <c r="O8">
-        <v>18.732529406857</v>
+        <v>12.08681804069909</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.29995892473292</v>
+        <v>22.71286574956926</v>
       </c>
       <c r="C9">
-        <v>11.59615082644726</v>
+        <v>11.17110660430557</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.26209671238581</v>
+        <v>7.544972596479449</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>22.97751611594684</v>
+        <v>20.09552886913033</v>
       </c>
       <c r="H9">
-        <v>12.71408753534676</v>
+        <v>7.549586705314615</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.561268292701286</v>
+        <v>7.560493268150024</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.66936854077085</v>
+        <v>11.8305495265271</v>
       </c>
       <c r="O9">
-        <v>18.5946016064844</v>
+        <v>12.35478586138398</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.15911893700896</v>
+        <v>24.72854778324708</v>
       </c>
       <c r="C10">
-        <v>11.7251231913968</v>
+        <v>11.59110180805431</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.20804927895291</v>
+        <v>7.596465778751867</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>23.03556340099611</v>
+        <v>21.31262243760968</v>
       </c>
       <c r="H10">
-        <v>12.65091867708315</v>
+        <v>7.546342506544665</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.62530891381712</v>
+        <v>7.996984158064441</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.62637510888124</v>
+        <v>11.75877189250368</v>
       </c>
       <c r="O10">
-        <v>18.51714680488743</v>
+        <v>12.62539798349639</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.53585040884596</v>
+        <v>25.59560317323792</v>
       </c>
       <c r="C11">
-        <v>11.78360861950835</v>
+        <v>11.77788131246155</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.18597761336417</v>
+        <v>7.627445222010354</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>23.07228748362083</v>
+        <v>21.88146767477559</v>
       </c>
       <c r="H11">
-        <v>12.62466656176653</v>
+        <v>7.553315177508811</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.655910308661838</v>
+        <v>8.191737129683824</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.60869097372062</v>
+        <v>11.73096236998846</v>
       </c>
       <c r="O11">
-        <v>18.48713970817006</v>
+        <v>12.76550173844194</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.67637378170925</v>
+        <v>25.91683323010206</v>
       </c>
       <c r="C12">
-        <v>11.80571817126161</v>
+        <v>11.84794598069957</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.1779817764356</v>
+        <v>7.640304333528582</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>23.08767307300378</v>
+        <v>22.09890495245764</v>
       </c>
       <c r="H12">
-        <v>12.61508326521168</v>
+        <v>7.557240917051423</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.667702798624337</v>
+        <v>8.264887640032571</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.60226322992875</v>
+        <v>11.72115812229209</v>
       </c>
       <c r="O12">
-        <v>18.47653175481607</v>
+        <v>12.8210656359852</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.64620616285577</v>
+        <v>25.84796546777641</v>
       </c>
       <c r="C13">
-        <v>11.80095833177606</v>
+        <v>11.83288660175239</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.17968770380683</v>
+        <v>7.63748409236754</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>23.08429383748368</v>
+        <v>22.05198803584608</v>
       </c>
       <c r="H13">
-        <v>12.61713127557715</v>
+        <v>7.55633714972984</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.665154095728031</v>
+        <v>8.249160689909672</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.60363561168001</v>
+        <v>11.72323682610475</v>
       </c>
       <c r="O13">
-        <v>18.47878273361105</v>
+        <v>12.80898641081641</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.54745474349892</v>
+        <v>25.62217295633837</v>
       </c>
       <c r="C14">
-        <v>11.78542840249905</v>
+        <v>11.78365916316924</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.18531252823108</v>
+        <v>7.628480314201245</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>23.0735236612205</v>
+        <v>21.89931655494805</v>
       </c>
       <c r="H14">
-        <v>12.6238709634327</v>
+        <v>7.553611986266423</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.656876427459581</v>
+        <v>8.197767514857846</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.60815677454103</v>
+        <v>11.73014102680799</v>
       </c>
       <c r="O14">
-        <v>18.48625183397657</v>
+        <v>12.77002238010098</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.48668541807461</v>
+        <v>25.48294532165537</v>
       </c>
       <c r="C15">
-        <v>11.77591064741013</v>
+        <v>11.75341798467396</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.18880508504825</v>
+        <v>7.623113318899516</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>23.06711903664738</v>
+        <v>21.80606064772144</v>
       </c>
       <c r="H15">
-        <v>12.6280458335201</v>
+        <v>7.552112227905241</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.651832528642521</v>
+        <v>8.166208450137386</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.61096111243595</v>
+        <v>11.73446560292174</v>
       </c>
       <c r="O15">
-        <v>18.49092530389103</v>
+        <v>12.74648437308965</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.13420522794535</v>
+        <v>24.670885634951</v>
       </c>
       <c r="C16">
-        <v>11.72129636849154</v>
+        <v>11.57880490568132</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.20954237028738</v>
+        <v>7.59459681471549</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>23.03337067744108</v>
+        <v>21.27573891997413</v>
       </c>
       <c r="H16">
-        <v>12.65268434940449</v>
+        <v>7.546062849887958</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.623338023025623</v>
+        <v>7.984175439940808</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.62756846340544</v>
+        <v>11.76068930301733</v>
       </c>
       <c r="O16">
-        <v>18.51921332361127</v>
+        <v>12.61658975665025</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.9142757093399</v>
+        <v>24.15998408146209</v>
       </c>
       <c r="C17">
-        <v>11.6877370889052</v>
+        <v>11.47055301816376</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.22290855854975</v>
+        <v>7.579067998362947</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>23.01530733648405</v>
+        <v>20.95417676059291</v>
       </c>
       <c r="H17">
-        <v>12.66843588827845</v>
+        <v>7.544565672422619</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.606229041547287</v>
+        <v>7.871489924281007</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.63823603597143</v>
+        <v>11.77803798286325</v>
       </c>
       <c r="O17">
-        <v>18.53790846824122</v>
+        <v>12.54130738874225</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.78645597438281</v>
+        <v>23.86142703992925</v>
       </c>
       <c r="C18">
-        <v>11.66841794852676</v>
+        <v>11.40788935985825</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.23083310611219</v>
+        <v>7.570844980840009</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>23.00588942322403</v>
+        <v>20.77066024542534</v>
       </c>
       <c r="H18">
-        <v>12.67772949718548</v>
+        <v>7.544495509474639</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.596527104598602</v>
+        <v>7.806320155881073</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.64454814743445</v>
+        <v>11.78847036994852</v>
       </c>
       <c r="O18">
-        <v>18.54915326871943</v>
+        <v>12.49960395523196</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.74295487945605</v>
+        <v>23.75953146268179</v>
       </c>
       <c r="C19">
-        <v>11.66187428325322</v>
+        <v>11.38660539587634</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.23355685107219</v>
+        <v>7.56818124022048</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>23.00286766078116</v>
+        <v>20.70877661179826</v>
       </c>
       <c r="H19">
-        <v>12.6809162785353</v>
+        <v>7.54460546045622</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.593266220225614</v>
+        <v>7.78419531822906</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.64671563589548</v>
+        <v>11.79207965699165</v>
       </c>
       <c r="O19">
-        <v>18.55304493353448</v>
+        <v>12.4857560298278</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.93782524469164</v>
+        <v>24.21485636129658</v>
       </c>
       <c r="C20">
-        <v>11.69131134317514</v>
+        <v>11.48211839106799</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.22146120611019</v>
+        <v>7.580647408012919</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>23.01712967443562</v>
+        <v>20.98826000234989</v>
       </c>
       <c r="H20">
-        <v>12.66673491405017</v>
+        <v>7.544642676896974</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.608036015841643</v>
+        <v>7.883522730993846</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.63708220161378</v>
+        <v>11.77614399691101</v>
       </c>
       <c r="O20">
-        <v>18.5358674085587</v>
+        <v>12.54915554027896</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.57651921084257</v>
+        <v>25.68868595877627</v>
       </c>
       <c r="C21">
-        <v>11.78999102769871</v>
+        <v>11.79813686598117</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.18365054569341</v>
+        <v>7.631094011416678</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>23.07664703528949</v>
+        <v>21.94410598301613</v>
       </c>
       <c r="H21">
-        <v>12.6218816377096</v>
+        <v>7.554376986879011</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.659302287633091</v>
+        <v>8.212879532558677</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.60682150753188</v>
+        <v>11.72809312598968</v>
       </c>
       <c r="O21">
-        <v>18.48403745967389</v>
+        <v>12.78139848117096</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.98144803546714</v>
+        <v>26.61053885209472</v>
       </c>
       <c r="C22">
-        <v>11.8542595990808</v>
+        <v>12.00077920514932</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.16105066326326</v>
+        <v>7.670655676964223</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>23.12416157565933</v>
+        <v>22.58056826957932</v>
       </c>
       <c r="H22">
-        <v>12.59465331516454</v>
+        <v>7.568263589197878</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.693995828731836</v>
+        <v>8.424628790587271</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.58861120643608</v>
+        <v>11.70093962637282</v>
       </c>
       <c r="O22">
-        <v>18.45456618946659</v>
+        <v>12.94783409710469</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.76650535519022</v>
+        <v>26.12229158561864</v>
       </c>
       <c r="C23">
-        <v>11.81998241211365</v>
+        <v>11.89299664745888</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.17291924811265</v>
+        <v>7.64892452971095</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>23.09801602520545</v>
+        <v>22.23984674134972</v>
       </c>
       <c r="H23">
-        <v>12.60899451066858</v>
+        <v>7.560140241361384</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.6753728542504</v>
+        <v>8.311949425838405</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.59818722046466</v>
+        <v>11.71503259612703</v>
       </c>
       <c r="O23">
-        <v>18.46989166926246</v>
+        <v>12.85764474422019</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.92718278765736</v>
+        <v>24.19006366228145</v>
       </c>
       <c r="C24">
-        <v>11.68969550129793</v>
+        <v>11.47689101594301</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.22211480616378</v>
+        <v>7.579931165075335</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>23.01630278317592</v>
+        <v>20.97284673976111</v>
       </c>
       <c r="H24">
-        <v>12.66750318368727</v>
+        <v>7.544605406017528</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.607218664095422</v>
+        <v>7.878083895477697</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.637603291939</v>
+        <v>11.77699884241758</v>
       </c>
       <c r="O24">
-        <v>18.53678862466703</v>
+        <v>12.54560248274493</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.97186388986529</v>
+        <v>21.92588706479064</v>
       </c>
       <c r="C25">
-        <v>11.54856479861774</v>
+        <v>11.01299898461521</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.284225804324</v>
+        <v>7.532421494393571</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>22.96530361275688</v>
+        <v>19.66189420233787</v>
       </c>
       <c r="H25">
-        <v>12.73954796652408</v>
+        <v>7.557805984863967</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.539030599380323</v>
+        <v>7.396757315609438</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.68686668350165</v>
+        <v>11.86108423991359</v>
       </c>
       <c r="O25">
-        <v>18.62773631703253</v>
+        <v>12.26971199467023</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.10128251287418</v>
+        <v>11.17546791214644</v>
       </c>
       <c r="C2">
-        <v>10.66047773286064</v>
+        <v>7.373581162089685</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.518932790363649</v>
+        <v>19.06032681566185</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.59855258364277</v>
       </c>
       <c r="G2">
-        <v>18.7506355768491</v>
+        <v>18.42667991660529</v>
       </c>
       <c r="H2">
-        <v>7.590701480090431</v>
+        <v>1.949232583890026</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.56937658740311</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.314497150000118</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.78854007623379</v>
       </c>
       <c r="L2">
-        <v>7.033137082579548</v>
+        <v>5.318280162358156</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.4148671050829</v>
       </c>
       <c r="N2">
-        <v>11.93679992478208</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.11573483238969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.23204613633954</v>
+      </c>
+      <c r="P2">
+        <v>12.37849644571321</v>
+      </c>
+      <c r="Q2">
+        <v>12.98347555623754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.76516190847951</v>
+        <v>10.50110904348871</v>
       </c>
       <c r="C3">
-        <v>10.41588356541595</v>
+        <v>7.102052420147066</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.522315009467098</v>
+        <v>18.14981011726313</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>29.53905915103339</v>
       </c>
       <c r="G3">
-        <v>18.1699365589016</v>
+        <v>18.31817735487798</v>
       </c>
       <c r="H3">
-        <v>7.626168481095967</v>
+        <v>2.168278184861745</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.481871407212397</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.366917497673706</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.90589494273262</v>
       </c>
       <c r="L3">
-        <v>6.782376609969222</v>
+        <v>5.256026154639799</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.909400703017068</v>
       </c>
       <c r="N3">
-        <v>11.99624946469822</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.04018347549062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.45454707998937</v>
+      </c>
+      <c r="P3">
+        <v>12.48934636883035</v>
+      </c>
+      <c r="Q3">
+        <v>13.03069639859395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.8952459044394</v>
+        <v>10.06124748213636</v>
       </c>
       <c r="C4">
-        <v>10.26332321223062</v>
+        <v>6.93177058239105</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.530263397470284</v>
+        <v>17.5684888217133</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>28.87625682654112</v>
       </c>
       <c r="G4">
-        <v>17.83257401740707</v>
+        <v>18.26093748559204</v>
       </c>
       <c r="H4">
-        <v>7.654025663707623</v>
+        <v>2.307903936579222</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.553323313182527</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.401296671034961</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.98105536347558</v>
       </c>
       <c r="L4">
-        <v>6.626834527764471</v>
+        <v>5.216247408821689</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.584405795892264</v>
       </c>
       <c r="N4">
-        <v>12.03661877823752</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>12.00728629252618</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.95654967808031</v>
+      </c>
+      <c r="P4">
+        <v>12.55924888622965</v>
+      </c>
+      <c r="Q4">
+        <v>13.06450254672562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.52823406419952</v>
+        <v>9.870748923994908</v>
       </c>
       <c r="C5">
-        <v>10.20062442854709</v>
+        <v>6.867640906254819</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.534932618471979</v>
+        <v>17.32863058049964</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>28.59967275340729</v>
       </c>
       <c r="G5">
-        <v>17.7000571388826</v>
+        <v>18.2315175775405</v>
       </c>
       <c r="H5">
-        <v>7.666845807877171</v>
+        <v>2.366212474598923</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.586467180240685</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.414617672465226</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.00924663654487</v>
       </c>
       <c r="L5">
-        <v>6.563148268649196</v>
+        <v>5.199596439849598</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.448325127258149</v>
       </c>
       <c r="N5">
-        <v>12.05402137831258</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.99715804906689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.74995405163746</v>
+      </c>
+      <c r="P5">
+        <v>12.58826341772273</v>
+      </c>
+      <c r="Q5">
+        <v>13.07624068535496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.46653453369083</v>
+        <v>9.832864421092058</v>
       </c>
       <c r="C6">
-        <v>10.19018346325654</v>
+        <v>6.864438399187263</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.535792950431699</v>
+        <v>17.29144906637646</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>28.54899712534123</v>
       </c>
       <c r="G6">
-        <v>17.67835595579824</v>
+        <v>18.21650838651423</v>
       </c>
       <c r="H6">
-        <v>7.669061501432184</v>
+        <v>2.376101296041297</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.5960710544685</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.415357963739989</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.01005886144817</v>
       </c>
       <c r="L6">
-        <v>6.552557907345093</v>
+        <v>5.196751564825735</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.425448056269294</v>
       </c>
       <c r="N6">
-        <v>12.05696796971067</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.99567070355234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.71700228574906</v>
+      </c>
+      <c r="P6">
+        <v>12.59319262323642</v>
+      </c>
+      <c r="Q6">
+        <v>13.07433263825019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.89034699978297</v>
+        <v>10.04303185333927</v>
       </c>
       <c r="C7">
-        <v>10.26247968359506</v>
+        <v>6.951159849133272</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.530320639162799</v>
+        <v>17.57323788944064</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>28.86015174281489</v>
       </c>
       <c r="G7">
-        <v>17.83076659866233</v>
+        <v>18.2325755574263</v>
       </c>
       <c r="H7">
-        <v>7.654192695671519</v>
+        <v>2.309026121398426</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.564457535981584</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.397372705466758</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.97074106567374</v>
       </c>
       <c r="L7">
-        <v>6.625976723368137</v>
+        <v>5.215880887190435</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.582408226885768</v>
       </c>
       <c r="N7">
-        <v>12.03684964850993</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>12.00713658639162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.95820122668136</v>
+      </c>
+      <c r="P7">
+        <v>12.55991706824611</v>
+      </c>
+      <c r="Q7">
+        <v>13.05394097661085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.65083266364405</v>
+        <v>10.92903705817889</v>
       </c>
       <c r="C8">
-        <v>10.57667554321465</v>
+        <v>7.306565273193362</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.518852726899265</v>
+        <v>18.7610543754681</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>30.22034664642432</v>
       </c>
       <c r="G8">
-        <v>18.54651585664692</v>
+        <v>18.35068683928371</v>
       </c>
       <c r="H8">
-        <v>7.601631545617494</v>
+        <v>2.02412507953588</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.535951855353675</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.326709649847755</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.81422513798727</v>
       </c>
       <c r="L8">
-        <v>6.947055584525295</v>
+        <v>5.296984668381824</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.24346678464865</v>
       </c>
       <c r="N8">
-        <v>11.95648276952518</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.08681804069909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.97380233241508</v>
+      </c>
+      <c r="P8">
+        <v>12.41693117924721</v>
+      </c>
+      <c r="Q8">
+        <v>12.9846113492681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.71286574956926</v>
+        <v>12.4861503627482</v>
       </c>
       <c r="C9">
-        <v>11.17110660430557</v>
+        <v>7.93908267223021</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.544972596479449</v>
+        <v>20.89312130403179</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>32.79719661846693</v>
       </c>
       <c r="G9">
-        <v>20.09552886913033</v>
+        <v>18.70872289841109</v>
       </c>
       <c r="H9">
-        <v>7.549586705314615</v>
+        <v>1.614900273652508</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.791738702230951</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.213320452250695</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.55162502378102</v>
       </c>
       <c r="L9">
-        <v>7.560493268150024</v>
+        <v>5.444049846055734</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.4206523029137</v>
       </c>
       <c r="N9">
-        <v>11.8305495265271</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>12.35478586138398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.78848569448622</v>
+      </c>
+      <c r="P9">
+        <v>12.15018269998329</v>
+      </c>
+      <c r="Q9">
+        <v>12.90763682527243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.72854778324708</v>
+        <v>13.50158709371127</v>
       </c>
       <c r="C10">
-        <v>11.59110180805431</v>
+        <v>8.384243407755713</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.596465778751867</v>
+        <v>22.00885724878014</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>34.30653946631216</v>
       </c>
       <c r="G10">
-        <v>21.31262243760968</v>
+        <v>18.92146044861293</v>
       </c>
       <c r="H10">
-        <v>7.546342506544665</v>
+        <v>1.950135172656057</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.970223252770314</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.127239689555346</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.34818251281725</v>
       </c>
       <c r="L10">
-        <v>7.996984158064441</v>
+        <v>5.549553733608901</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.20828714948905</v>
       </c>
       <c r="N10">
-        <v>11.75877189250368</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>12.62539798349639</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.84296992812169</v>
+      </c>
+      <c r="P10">
+        <v>11.96845195677082</v>
+      </c>
+      <c r="Q10">
+        <v>12.83905096445793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.59560317323792</v>
+        <v>13.9480589439049</v>
       </c>
       <c r="C11">
-        <v>11.77788131246155</v>
+        <v>8.539351454542746</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.627445222010354</v>
+        <v>19.66148625480491</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>32.42663128964021</v>
       </c>
       <c r="G11">
-        <v>21.88146767477559</v>
+        <v>18.22850385314991</v>
       </c>
       <c r="H11">
-        <v>7.553315177508811</v>
+        <v>2.822524465803337</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.032360261783156</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.97579715891727</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.05632677137908</v>
       </c>
       <c r="L11">
-        <v>8.191737129683824</v>
+        <v>5.686073733521276</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.54161815001928</v>
       </c>
       <c r="N11">
-        <v>11.73096236998846</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>12.76550173844194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.84211199434942</v>
+      </c>
+      <c r="P11">
+        <v>11.94005871490824</v>
+      </c>
+      <c r="Q11">
+        <v>12.50445036826934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.91683323010206</v>
+        <v>14.13876769437345</v>
       </c>
       <c r="C12">
-        <v>11.84794598069957</v>
+        <v>8.551191579104996</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.640304333528582</v>
+        <v>17.45507529785785</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>30.52141788634614</v>
       </c>
       <c r="G12">
-        <v>22.09890495245764</v>
+        <v>17.62495407182399</v>
       </c>
       <c r="H12">
-        <v>7.557240917051423</v>
+        <v>4.09369816557232</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.044326785994769</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.86986359234678</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.86834526968816</v>
       </c>
       <c r="L12">
-        <v>8.264887640032571</v>
+        <v>5.842419605332251</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.66289549054757</v>
       </c>
       <c r="N12">
-        <v>11.72115812229209</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>12.8210656359852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.76176184534805</v>
+      </c>
+      <c r="P12">
+        <v>11.95931491404398</v>
+      </c>
+      <c r="Q12">
+        <v>12.24695294264053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.84796546777641</v>
+        <v>14.13201635327185</v>
       </c>
       <c r="C13">
-        <v>11.83288660175239</v>
+        <v>8.48082428272307</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.63748409236754</v>
+        <v>15.19874356525048</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>28.4293436124097</v>
       </c>
       <c r="G13">
-        <v>22.05198803584608</v>
+        <v>17.00664670508273</v>
       </c>
       <c r="H13">
-        <v>7.55633714972984</v>
+        <v>5.45254313529758</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.023163748935889</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.786227715016373</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.73275453198016</v>
       </c>
       <c r="L13">
-        <v>8.249160689909672</v>
+        <v>6.016760090808088</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.63152410258951</v>
       </c>
       <c r="N13">
-        <v>11.72323682610475</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>12.80898641081641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.53134304885202</v>
+      </c>
+      <c r="P13">
+        <v>12.01464148504955</v>
+      </c>
+      <c r="Q13">
+        <v>12.01645916279068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.62217295633837</v>
+        <v>14.03436690663014</v>
       </c>
       <c r="C14">
-        <v>11.78365916316924</v>
+        <v>8.399227773120513</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.628480314201245</v>
+        <v>13.60414479905917</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>26.8660911810448</v>
       </c>
       <c r="G14">
-        <v>21.89931655494805</v>
+        <v>16.56052594426857</v>
       </c>
       <c r="H14">
-        <v>7.553611986266423</v>
+        <v>6.486194286038709</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.994558716687362</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.737109167692277</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.66005260478196</v>
       </c>
       <c r="L14">
-        <v>8.197767514857846</v>
+        <v>6.15156273640803</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.5401710948422</v>
       </c>
       <c r="N14">
-        <v>11.73014102680799</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>12.77002238010098</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.58936007036966</v>
+      </c>
+      <c r="P14">
+        <v>12.06976746957591</v>
+      </c>
+      <c r="Q14">
+        <v>11.86570199269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.48294532165537</v>
+        <v>13.96295714502159</v>
       </c>
       <c r="C15">
-        <v>11.75341798467396</v>
+        <v>8.3685436378854</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.623113318899516</v>
+        <v>13.20373367117258</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>26.44201455263561</v>
       </c>
       <c r="G15">
-        <v>21.80606064772144</v>
+        <v>16.44147568947421</v>
       </c>
       <c r="H15">
-        <v>7.552112227905241</v>
+        <v>6.725390386193237</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.981849753698346</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.728970125752063</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.65050430011572</v>
       </c>
       <c r="L15">
-        <v>8.166208450137386</v>
+        <v>6.180331221656027</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.484815429915</v>
       </c>
       <c r="N15">
-        <v>11.73446560292174</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>12.74648437308965</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.32751615114471</v>
+      </c>
+      <c r="P15">
+        <v>12.09047909348351</v>
+      </c>
+      <c r="Q15">
+        <v>11.83219592278208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.670885634951</v>
+        <v>13.54303153554552</v>
       </c>
       <c r="C16">
-        <v>11.57880490568132</v>
+        <v>8.205491019393598</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.59459681471549</v>
+        <v>13.06943471450204</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>26.13123548124977</v>
       </c>
       <c r="G16">
-        <v>21.27573891997413</v>
+        <v>16.44729959587842</v>
       </c>
       <c r="H16">
-        <v>7.546062849887958</v>
+        <v>6.517761379463452</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.9127264406766</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.780060620514824</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.75949219475199</v>
       </c>
       <c r="L16">
-        <v>7.984175439940808</v>
+        <v>6.097076537860328</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.16585244485324</v>
       </c>
       <c r="N16">
-        <v>11.76068930301733</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.61658975665025</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.05913005064315</v>
+      </c>
+      <c r="P16">
+        <v>12.14939614706502</v>
+      </c>
+      <c r="Q16">
+        <v>11.90114639508558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.15998408146209</v>
+        <v>13.26723908253633</v>
       </c>
       <c r="C17">
-        <v>11.47055301816376</v>
+        <v>8.12430526640912</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.579067998362947</v>
+        <v>13.82786438692823</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>26.74416694906751</v>
       </c>
       <c r="G17">
-        <v>20.95417676059291</v>
+        <v>16.69131128096154</v>
       </c>
       <c r="H17">
-        <v>7.544565672422619</v>
+        <v>5.777003605456274</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.874945673222443</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.845383735361003</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.88102490444265</v>
       </c>
       <c r="L17">
-        <v>7.871489924281007</v>
+        <v>5.956232651636678</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.96702991978657</v>
       </c>
       <c r="N17">
-        <v>11.77803798286325</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.54130738874225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.37332934800587</v>
+      </c>
+      <c r="P17">
+        <v>12.16668730129219</v>
+      </c>
+      <c r="Q17">
+        <v>12.03409346462306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.86142703992925</v>
+        <v>13.1016648479266</v>
       </c>
       <c r="C18">
-        <v>11.40788935985825</v>
+        <v>8.090736344904258</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.570844980840009</v>
+        <v>15.49587379792132</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>28.23665909896065</v>
       </c>
       <c r="G18">
-        <v>20.77066024542534</v>
+        <v>17.18331579832996</v>
       </c>
       <c r="H18">
-        <v>7.544495509474639</v>
+        <v>4.510177239009659</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.856857885769519</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.932502104496854</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.03494095865172</v>
       </c>
       <c r="L18">
-        <v>7.806320155881073</v>
+        <v>5.774603184059183</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.85343576833907</v>
       </c>
       <c r="N18">
-        <v>11.78847036994852</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>12.49960395523196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.2264124138097</v>
+      </c>
+      <c r="P18">
+        <v>12.15113171417821</v>
+      </c>
+      <c r="Q18">
+        <v>12.24320496239637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.75953146268179</v>
+        <v>13.01637286176181</v>
       </c>
       <c r="C19">
-        <v>11.38660539587634</v>
+        <v>8.133292911427841</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.56818124022048</v>
+        <v>17.82542054066793</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>30.30495515958868</v>
       </c>
       <c r="G19">
-        <v>20.70877661179826</v>
+        <v>17.78911286799093</v>
       </c>
       <c r="H19">
-        <v>7.54460546045622</v>
+        <v>2.986803463668897</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.865842997309423</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.023646759336547</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.18832535258002</v>
       </c>
       <c r="L19">
-        <v>7.78419531822906</v>
+        <v>5.615755387848796</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.81855173544991</v>
       </c>
       <c r="N19">
-        <v>11.79207965699165</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>12.4857560298278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.44643476247785</v>
+      </c>
+      <c r="P19">
+        <v>12.1164779435594</v>
+      </c>
+      <c r="Q19">
+        <v>12.48010781895955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.21485636129658</v>
+        <v>13.20520182337662</v>
       </c>
       <c r="C20">
-        <v>11.48211839106799</v>
+        <v>8.323957741573979</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.580647408012919</v>
+        <v>21.72690785018202</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>33.86909307702231</v>
       </c>
       <c r="G20">
-        <v>20.98826000234989</v>
+        <v>18.77537587361302</v>
       </c>
       <c r="H20">
-        <v>7.544642676896974</v>
+        <v>1.860564273676427</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.934368318174564</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.135913625044628</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.36644300114669</v>
       </c>
       <c r="L20">
-        <v>7.883522730993846</v>
+        <v>5.522284733656605</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.00633432301775</v>
       </c>
       <c r="N20">
-        <v>11.77614399691101</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>12.54915554027896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.57558747903111</v>
+      </c>
+      <c r="P20">
+        <v>12.01834731115872</v>
+      </c>
+      <c r="Q20">
+        <v>12.8208963866599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.68868595877627</v>
+        <v>13.94946442157965</v>
       </c>
       <c r="C21">
-        <v>11.79813686598117</v>
+        <v>8.657775053030836</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.631094011416678</v>
+        <v>23.05788474430123</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>35.46290296207773</v>
       </c>
       <c r="G21">
-        <v>21.94410598301613</v>
+        <v>19.10965674247893</v>
       </c>
       <c r="H21">
-        <v>7.554376986879011</v>
+        <v>2.13453243900179</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.070842806866763</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.095684569479344</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.25615469657859</v>
       </c>
       <c r="L21">
-        <v>8.212879532558677</v>
+        <v>5.593989770849575</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.58754242654889</v>
       </c>
       <c r="N21">
-        <v>11.72809312598968</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>12.78139848117096</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.61145802866946</v>
+      </c>
+      <c r="P21">
+        <v>11.87374551538094</v>
+      </c>
+      <c r="Q21">
+        <v>12.83657413217359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.61053885209472</v>
+        <v>14.42938568136166</v>
       </c>
       <c r="C22">
-        <v>12.00077920514932</v>
+        <v>8.84596821824419</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.670655676964223</v>
+        <v>23.72425201537484</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>36.34663880658559</v>
       </c>
       <c r="G22">
-        <v>22.58056826957932</v>
+        <v>19.32680038975793</v>
       </c>
       <c r="H22">
-        <v>7.568263589197878</v>
+        <v>2.301817817012882</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.153084155226173</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.070677182975105</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.19032037011924</v>
       </c>
       <c r="L22">
-        <v>8.424628790587271</v>
+        <v>5.642014214106609</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.95257341095693</v>
       </c>
       <c r="N22">
-        <v>11.70093962637282</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>12.94783409710469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.17500903460805</v>
+      </c>
+      <c r="P22">
+        <v>11.78208150655391</v>
+      </c>
+      <c r="Q22">
+        <v>12.84891781327197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.12229158561864</v>
+        <v>14.18900720286067</v>
       </c>
       <c r="C23">
-        <v>11.89299664745888</v>
+        <v>8.725695804321306</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.64892452971095</v>
+        <v>23.36347274194811</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>35.88852538157521</v>
       </c>
       <c r="G23">
-        <v>22.23984674134972</v>
+        <v>19.24071672942254</v>
       </c>
       <c r="H23">
-        <v>7.560140241361384</v>
+        <v>2.213176151962967</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.105246926476329</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.088564861177971</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.23773842858479</v>
       </c>
       <c r="L23">
-        <v>8.311949425838405</v>
+        <v>5.616546125511006</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.7592028996027</v>
       </c>
       <c r="N23">
-        <v>11.71503259612703</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>12.85764474422019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.87227707442198</v>
+      </c>
+      <c r="P23">
+        <v>11.82973648086132</v>
+      </c>
+      <c r="Q23">
+        <v>12.85416880973512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.19006366228145</v>
+        <v>13.21213615732056</v>
       </c>
       <c r="C24">
-        <v>11.47689101594301</v>
+        <v>8.29276319345546</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.579931165075335</v>
+        <v>21.96113816344127</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>34.09751421729519</v>
       </c>
       <c r="G24">
-        <v>20.97284673976111</v>
+        <v>18.88753278729286</v>
       </c>
       <c r="H24">
-        <v>7.544605406017528</v>
+        <v>1.869320321158509</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.927322398660246</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.153733507262473</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.40452752259997</v>
       </c>
       <c r="L24">
-        <v>7.878083895477697</v>
+        <v>5.517564107916891</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.9975961282078</v>
       </c>
       <c r="N24">
-        <v>11.77699884241758</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>12.54560248274493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.68907845542912</v>
+      </c>
+      <c r="P24">
+        <v>12.01525947608022</v>
+      </c>
+      <c r="Q24">
+        <v>12.8663635326254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.92588706479064</v>
+        <v>12.06304690870829</v>
       </c>
       <c r="C25">
-        <v>11.01299898461521</v>
+        <v>7.804997638308599</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.532421494393571</v>
+        <v>20.34952316202725</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>32.09380349427478</v>
       </c>
       <c r="G25">
-        <v>19.66189420233787</v>
+        <v>18.55422047044867</v>
       </c>
       <c r="H25">
-        <v>7.557805984863967</v>
+        <v>1.641698745747619</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.729480099847375</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.234668442639791</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.60061274757039</v>
       </c>
       <c r="L25">
-        <v>7.396757315609438</v>
+        <v>5.405395589648368</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.11513929833643</v>
       </c>
       <c r="N25">
-        <v>11.86108423991359</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>12.26971199467023</v>
+        <v>16.32331409801063</v>
+      </c>
+      <c r="P25">
+        <v>12.22199772753405</v>
+      </c>
+      <c r="Q25">
+        <v>12.90476141846262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.17546791214644</v>
+        <v>11.08776095136337</v>
       </c>
       <c r="C2">
-        <v>7.373581162089685</v>
+        <v>7.341110161628871</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>19.06032681566185</v>
+        <v>19.16329489055463</v>
       </c>
       <c r="F2">
-        <v>30.59855258364277</v>
+        <v>30.46209252344518</v>
       </c>
       <c r="G2">
-        <v>18.42667991660529</v>
+        <v>17.34219468320887</v>
       </c>
       <c r="H2">
-        <v>1.949232583890026</v>
+        <v>1.938760388025097</v>
       </c>
       <c r="I2">
-        <v>2.56937658740311</v>
+        <v>2.629112748939979</v>
       </c>
       <c r="J2">
-        <v>8.314497150000118</v>
+        <v>8.69052564316903</v>
       </c>
       <c r="K2">
-        <v>12.78854007623379</v>
+        <v>12.52204089493553</v>
       </c>
       <c r="L2">
-        <v>5.318280162358156</v>
+        <v>11.00115146742128</v>
       </c>
       <c r="M2">
-        <v>10.4148671050829</v>
+        <v>7.498757928615267</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.31007343250086</v>
       </c>
       <c r="O2">
-        <v>15.23204613633954</v>
+        <v>10.41278660710573</v>
       </c>
       <c r="P2">
-        <v>12.37849644571321</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.98347555623754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.28833541302696</v>
+      </c>
+      <c r="R2">
+        <v>12.3335588332137</v>
+      </c>
+      <c r="S2">
+        <v>12.81219715037384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.50110904348871</v>
+        <v>10.45750551960349</v>
       </c>
       <c r="C3">
-        <v>7.102052420147066</v>
+        <v>6.996389003581347</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>18.14981011726313</v>
+        <v>18.24326128532984</v>
       </c>
       <c r="F3">
-        <v>29.53905915103339</v>
+        <v>29.42749379385657</v>
       </c>
       <c r="G3">
-        <v>18.31817735487798</v>
+        <v>17.29616448679603</v>
       </c>
       <c r="H3">
-        <v>2.168278184861745</v>
+        <v>2.154070844271776</v>
       </c>
       <c r="I3">
-        <v>2.481871407212397</v>
+        <v>2.532867281721408</v>
       </c>
       <c r="J3">
-        <v>8.366917497673706</v>
+        <v>8.720252079738646</v>
       </c>
       <c r="K3">
-        <v>12.90589494273262</v>
+        <v>12.646499581819</v>
       </c>
       <c r="L3">
-        <v>5.256026154639799</v>
+        <v>11.16238045936127</v>
       </c>
       <c r="M3">
-        <v>9.909400703017068</v>
+        <v>7.55946988963773</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.246322146982193</v>
       </c>
       <c r="O3">
-        <v>14.45454707998937</v>
+        <v>9.911060909572186</v>
       </c>
       <c r="P3">
-        <v>12.48934636883035</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.03069639859395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.50339973424601</v>
+      </c>
+      <c r="R3">
+        <v>12.43356585377073</v>
+      </c>
+      <c r="S3">
+        <v>12.87215145529616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.06124748213636</v>
+        <v>10.04656045994132</v>
       </c>
       <c r="C4">
-        <v>6.93177058239105</v>
+        <v>6.779582801139439</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.5684888217133</v>
+        <v>17.65635247952202</v>
       </c>
       <c r="F4">
-        <v>28.87625682654112</v>
+        <v>28.78003573963257</v>
       </c>
       <c r="G4">
-        <v>18.26093748559204</v>
+        <v>17.27800989473014</v>
       </c>
       <c r="H4">
-        <v>2.307903936579222</v>
+        <v>2.291334248575716</v>
       </c>
       <c r="I4">
-        <v>2.553323313182527</v>
+        <v>2.476846847857178</v>
       </c>
       <c r="J4">
-        <v>8.401296671034961</v>
+        <v>8.73945880349102</v>
       </c>
       <c r="K4">
-        <v>12.98105536347558</v>
+        <v>12.72512797739856</v>
       </c>
       <c r="L4">
-        <v>5.216247408821689</v>
+        <v>11.26576902068678</v>
       </c>
       <c r="M4">
-        <v>9.584405795892264</v>
+        <v>7.614022943769958</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.205632615775095</v>
       </c>
       <c r="O4">
-        <v>13.95654967808031</v>
+        <v>9.588543552204788</v>
       </c>
       <c r="P4">
-        <v>12.55924888622965</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.06450254672562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.00068917085253</v>
+      </c>
+      <c r="R4">
+        <v>12.49698904540737</v>
+      </c>
+      <c r="S4">
+        <v>12.91285299631656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.870748923994908</v>
+        <v>9.868345085709741</v>
       </c>
       <c r="C5">
-        <v>6.867640906254819</v>
+        <v>6.696666567864047</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.32863058049964</v>
+        <v>17.4143130406109</v>
       </c>
       <c r="F5">
-        <v>28.59967275340729</v>
+        <v>28.50968066691239</v>
       </c>
       <c r="G5">
-        <v>18.2315175775405</v>
+        <v>17.26446170768467</v>
       </c>
       <c r="H5">
-        <v>2.366212474598923</v>
+        <v>2.348659352750829</v>
       </c>
       <c r="I5">
-        <v>2.586467180240685</v>
+        <v>2.507408085139228</v>
       </c>
       <c r="J5">
-        <v>8.414617672465226</v>
+        <v>8.746269049989321</v>
       </c>
       <c r="K5">
-        <v>13.00924663654487</v>
+        <v>12.75454980310467</v>
       </c>
       <c r="L5">
-        <v>5.199596439849598</v>
+        <v>11.30567795792247</v>
       </c>
       <c r="M5">
-        <v>9.448325127258149</v>
+        <v>7.639219262325923</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.188615448514962</v>
       </c>
       <c r="O5">
-        <v>13.74995405163746</v>
+        <v>9.453526316114722</v>
       </c>
       <c r="P5">
-        <v>12.58826341772273</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.07624068535496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.79214965104514</v>
+      </c>
+      <c r="R5">
+        <v>12.5234337939485</v>
+      </c>
+      <c r="S5">
+        <v>12.92717056044574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.832864421092058</v>
+        <v>9.832567235750746</v>
       </c>
       <c r="C6">
-        <v>6.864438399187263</v>
+        <v>6.69097404770896</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.29144906637646</v>
+        <v>17.37679382239036</v>
       </c>
       <c r="F6">
-        <v>28.54899712534123</v>
+        <v>28.46001501952246</v>
       </c>
       <c r="G6">
-        <v>18.21650838651423</v>
+        <v>17.25186112178008</v>
       </c>
       <c r="H6">
-        <v>2.376101296041297</v>
+        <v>2.358380249338612</v>
       </c>
       <c r="I6">
-        <v>2.5960710544685</v>
+        <v>2.517316617259653</v>
       </c>
       <c r="J6">
-        <v>8.415357963739989</v>
+        <v>8.745881026095113</v>
       </c>
       <c r="K6">
-        <v>13.01005886144817</v>
+        <v>12.75559822462396</v>
       </c>
       <c r="L6">
-        <v>5.196751564825735</v>
+        <v>11.30831888557123</v>
       </c>
       <c r="M6">
-        <v>9.425448056269294</v>
+        <v>7.642049001198847</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.185713010275552</v>
       </c>
       <c r="O6">
-        <v>13.71700228574906</v>
+        <v>9.430835343263734</v>
       </c>
       <c r="P6">
-        <v>12.59319262323642</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.07433263825019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.75888187728587</v>
+      </c>
+      <c r="R6">
+        <v>12.52797438833876</v>
+      </c>
+      <c r="S6">
+        <v>12.92567406666425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.04303185333927</v>
+        <v>10.02588603407435</v>
       </c>
       <c r="C7">
-        <v>6.951159849133272</v>
+        <v>6.795138677317268</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.57323788944064</v>
+        <v>17.66742726544337</v>
       </c>
       <c r="F7">
-        <v>28.86015174281489</v>
+        <v>28.75672118035609</v>
       </c>
       <c r="G7">
-        <v>18.2325755574263</v>
+        <v>17.32048067318999</v>
       </c>
       <c r="H7">
-        <v>2.309026121398426</v>
+        <v>2.292690757193581</v>
       </c>
       <c r="I7">
-        <v>2.564457535981584</v>
+        <v>2.490312292974024</v>
       </c>
       <c r="J7">
-        <v>8.397372705466758</v>
+        <v>8.70877395826386</v>
       </c>
       <c r="K7">
-        <v>12.97074106567374</v>
+        <v>12.71130690110739</v>
       </c>
       <c r="L7">
-        <v>5.215880887190435</v>
+        <v>11.25182793902786</v>
       </c>
       <c r="M7">
-        <v>9.582408226885768</v>
+        <v>7.607829781615087</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.205227190613096</v>
       </c>
       <c r="O7">
-        <v>13.95820122668136</v>
+        <v>9.582944491831199</v>
       </c>
       <c r="P7">
-        <v>12.55991706824611</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.05394097661085</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.00312956248655</v>
+      </c>
+      <c r="R7">
+        <v>12.4979940754584</v>
+      </c>
+      <c r="S7">
+        <v>12.89566745679166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.92903705817889</v>
+        <v>10.84785395244317</v>
       </c>
       <c r="C8">
-        <v>7.306565273193362</v>
+        <v>7.234477112801238</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.7610543754681</v>
+        <v>18.88059959580764</v>
       </c>
       <c r="F8">
-        <v>30.22034664642432</v>
+        <v>30.06940733405215</v>
       </c>
       <c r="G8">
-        <v>18.35068683928371</v>
+        <v>17.52388299999652</v>
       </c>
       <c r="H8">
-        <v>2.02412507953588</v>
+        <v>2.013153993702036</v>
       </c>
       <c r="I8">
-        <v>2.535951855353675</v>
+        <v>2.599449571100431</v>
       </c>
       <c r="J8">
-        <v>8.326709649847755</v>
+        <v>8.608898799085837</v>
       </c>
       <c r="K8">
-        <v>12.81422513798727</v>
+        <v>12.53869366356253</v>
       </c>
       <c r="L8">
-        <v>5.296984668381824</v>
+        <v>11.03224645720887</v>
       </c>
       <c r="M8">
-        <v>10.24346678464865</v>
+        <v>7.500472917468302</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.288194076778076</v>
       </c>
       <c r="O8">
-        <v>14.97380233241508</v>
+        <v>10.23126984665271</v>
       </c>
       <c r="P8">
-        <v>12.41693117924721</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.9846113492681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.03004217831024</v>
+      </c>
+      <c r="R8">
+        <v>12.36959643871519</v>
+      </c>
+      <c r="S8">
+        <v>12.79595624468151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.4861503627482</v>
+        <v>12.3035718468289</v>
       </c>
       <c r="C9">
-        <v>7.93908267223021</v>
+        <v>8.034364019579195</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>20.89312130403179</v>
+        <v>21.04039652391451</v>
       </c>
       <c r="F9">
-        <v>32.79719661846693</v>
+        <v>32.58115660101674</v>
       </c>
       <c r="G9">
-        <v>18.70872289841109</v>
+        <v>17.79377109058114</v>
       </c>
       <c r="H9">
-        <v>1.614900273652508</v>
+        <v>1.616739489862121</v>
       </c>
       <c r="I9">
-        <v>2.791738702230951</v>
+        <v>2.827114121663997</v>
       </c>
       <c r="J9">
-        <v>8.213320452250695</v>
+        <v>8.521313344339546</v>
       </c>
       <c r="K9">
-        <v>12.55162502378102</v>
+        <v>12.24978014734202</v>
       </c>
       <c r="L9">
-        <v>5.444049846055734</v>
+        <v>10.66668039741314</v>
       </c>
       <c r="M9">
-        <v>11.4206523029137</v>
+        <v>7.447176910399672</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.439090208754783</v>
       </c>
       <c r="O9">
-        <v>16.78848569448622</v>
+        <v>11.39814965619613</v>
       </c>
       <c r="P9">
-        <v>12.15018269998329</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.90763682527243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.86252396348484</v>
+      </c>
+      <c r="R9">
+        <v>12.13180208935375</v>
+      </c>
+      <c r="S9">
+        <v>12.67591115922741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.50158709371127</v>
+        <v>13.24296951207212</v>
       </c>
       <c r="C10">
-        <v>8.384243407755713</v>
+        <v>8.563307266124308</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>22.00885724878014</v>
+        <v>22.20495426282771</v>
       </c>
       <c r="F10">
-        <v>34.30653946631216</v>
+        <v>34.01133132866784</v>
       </c>
       <c r="G10">
-        <v>18.92146044861293</v>
+        <v>18.36137822357557</v>
       </c>
       <c r="H10">
-        <v>1.950135172656057</v>
+        <v>1.944772276208736</v>
       </c>
       <c r="I10">
-        <v>2.970223252770314</v>
+        <v>2.985514438722611</v>
       </c>
       <c r="J10">
-        <v>8.127239689555346</v>
+        <v>8.308390061074149</v>
       </c>
       <c r="K10">
-        <v>12.34818251281725</v>
+        <v>12.00496265413666</v>
       </c>
       <c r="L10">
-        <v>5.549553733608901</v>
+        <v>10.39046307430502</v>
       </c>
       <c r="M10">
-        <v>12.20828714948905</v>
+        <v>7.453920458918447</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.548649185342931</v>
       </c>
       <c r="O10">
-        <v>17.84296992812169</v>
+        <v>12.16183670675932</v>
       </c>
       <c r="P10">
-        <v>11.96845195677082</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.83905096445793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.93186554614847</v>
+      </c>
+      <c r="R10">
+        <v>11.97681072538108</v>
+      </c>
+      <c r="S10">
+        <v>12.5354587326117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.9480589439049</v>
+        <v>13.6560101631224</v>
       </c>
       <c r="C11">
-        <v>8.539351454542746</v>
+        <v>8.678955224931331</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.66148625480491</v>
+        <v>19.91300747319552</v>
       </c>
       <c r="F11">
-        <v>32.42663128964021</v>
+        <v>32.05792186648881</v>
       </c>
       <c r="G11">
-        <v>18.22850385314991</v>
+        <v>18.56760998051894</v>
       </c>
       <c r="H11">
-        <v>2.822524465803337</v>
+        <v>2.816213650770201</v>
       </c>
       <c r="I11">
-        <v>3.032360261783156</v>
+        <v>3.040057163610093</v>
       </c>
       <c r="J11">
-        <v>7.97579715891727</v>
+        <v>7.933470038288351</v>
       </c>
       <c r="K11">
-        <v>12.05632677137908</v>
+        <v>11.69279773486671</v>
       </c>
       <c r="L11">
-        <v>5.686073733521276</v>
+        <v>10.14497297703891</v>
       </c>
       <c r="M11">
-        <v>12.54161815001928</v>
+        <v>7.275246776663531</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.699936479343376</v>
       </c>
       <c r="O11">
-        <v>16.84211199434942</v>
+        <v>12.45605906238648</v>
       </c>
       <c r="P11">
-        <v>11.94005871490824</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.50445036826934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.93789894656673</v>
+      </c>
+      <c r="R11">
+        <v>11.97657002427628</v>
+      </c>
+      <c r="S11">
+        <v>12.13124905746599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.13876769437345</v>
+        <v>13.84142174504002</v>
       </c>
       <c r="C12">
-        <v>8.551191579104996</v>
+        <v>8.654093176963288</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.45507529785785</v>
+        <v>17.72065677291043</v>
       </c>
       <c r="F12">
-        <v>30.52141788634614</v>
+        <v>30.13037375837648</v>
       </c>
       <c r="G12">
-        <v>17.62495407182399</v>
+        <v>18.39010311879049</v>
       </c>
       <c r="H12">
-        <v>4.09369816557232</v>
+        <v>4.088936613887695</v>
       </c>
       <c r="I12">
-        <v>3.044326785994769</v>
+        <v>3.048973129505402</v>
       </c>
       <c r="J12">
-        <v>7.86986359234678</v>
+        <v>7.772904537752516</v>
       </c>
       <c r="K12">
-        <v>11.86834526968816</v>
+        <v>11.5110361657629</v>
       </c>
       <c r="L12">
-        <v>5.842419605332251</v>
+        <v>10.02012573976475</v>
       </c>
       <c r="M12">
-        <v>12.66289549054757</v>
+        <v>7.139818057338777</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.868816039963657</v>
       </c>
       <c r="O12">
-        <v>15.76176184534805</v>
+        <v>12.55945760376623</v>
       </c>
       <c r="P12">
-        <v>11.95931491404398</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.24695294264053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.85797764722</v>
+      </c>
+      <c r="R12">
+        <v>12.01233765961101</v>
+      </c>
+      <c r="S12">
+        <v>11.85677896708423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.13201635327185</v>
+        <v>13.85590320435542</v>
       </c>
       <c r="C13">
-        <v>8.48082428272307</v>
+        <v>8.559390405783718</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.19874356525048</v>
+        <v>15.4357024013111</v>
       </c>
       <c r="F13">
-        <v>28.4293436124097</v>
+        <v>28.06814235616491</v>
       </c>
       <c r="G13">
-        <v>17.00664670508273</v>
+        <v>17.66557727995983</v>
       </c>
       <c r="H13">
-        <v>5.45254313529758</v>
+        <v>5.455069997600621</v>
       </c>
       <c r="I13">
-        <v>3.023163748935889</v>
+        <v>3.030245938618492</v>
       </c>
       <c r="J13">
-        <v>7.786227715016373</v>
+        <v>7.752350877681528</v>
       </c>
       <c r="K13">
-        <v>11.73275453198016</v>
+        <v>11.40856019988313</v>
       </c>
       <c r="L13">
-        <v>6.016760090808088</v>
+        <v>9.962578306771361</v>
       </c>
       <c r="M13">
-        <v>12.63152410258951</v>
+        <v>7.026009633674664</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.050451508324134</v>
       </c>
       <c r="O13">
-        <v>14.53134304885202</v>
+        <v>12.53262402255232</v>
       </c>
       <c r="P13">
-        <v>12.01464148504955</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.01645916279068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.62148275403339</v>
+      </c>
+      <c r="R13">
+        <v>12.07117541099263</v>
+      </c>
+      <c r="S13">
+        <v>11.66283907991882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.03436690663014</v>
+        <v>13.78521955778837</v>
       </c>
       <c r="C14">
-        <v>8.399227773120513</v>
+        <v>8.465913016368013</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.60414479905917</v>
+        <v>13.80273124391561</v>
       </c>
       <c r="F14">
-        <v>26.8660911810448</v>
+        <v>26.54837654976266</v>
       </c>
       <c r="G14">
-        <v>16.56052594426857</v>
+        <v>16.91798064410954</v>
       </c>
       <c r="H14">
-        <v>6.486194286038709</v>
+        <v>6.488023853484592</v>
       </c>
       <c r="I14">
-        <v>2.994558716687362</v>
+        <v>3.006148192902938</v>
       </c>
       <c r="J14">
-        <v>7.737109167692277</v>
+        <v>7.78943781705496</v>
       </c>
       <c r="K14">
-        <v>11.66005260478196</v>
+        <v>11.36889847160484</v>
       </c>
       <c r="L14">
-        <v>6.15156273640803</v>
+        <v>9.947506094781856</v>
       </c>
       <c r="M14">
-        <v>12.5401710948422</v>
+        <v>6.955884756767415</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.186521308465192</v>
       </c>
       <c r="O14">
-        <v>13.58936007036966</v>
+        <v>12.45439326447103</v>
       </c>
       <c r="P14">
-        <v>12.06976746957591</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.86570199269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.67229043404084</v>
+      </c>
+      <c r="R14">
+        <v>12.1218975436592</v>
+      </c>
+      <c r="S14">
+        <v>11.55907504307245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.96295714502159</v>
+        <v>13.72577486869895</v>
       </c>
       <c r="C15">
-        <v>8.3685436378854</v>
+        <v>8.434518630176798</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.20373367117258</v>
+        <v>13.38636960407904</v>
       </c>
       <c r="F15">
-        <v>26.44201455263561</v>
+        <v>26.14436519723178</v>
       </c>
       <c r="G15">
-        <v>16.44147568947421</v>
+        <v>16.63116922353243</v>
       </c>
       <c r="H15">
-        <v>6.725390386193237</v>
+        <v>6.726980906636049</v>
       </c>
       <c r="I15">
-        <v>2.981849753698346</v>
+        <v>2.996202227129032</v>
       </c>
       <c r="J15">
-        <v>7.728970125752063</v>
+        <v>7.821833829897849</v>
       </c>
       <c r="K15">
-        <v>11.65050430011572</v>
+        <v>11.37168611067258</v>
       </c>
       <c r="L15">
-        <v>6.180331221656027</v>
+        <v>9.953827777273503</v>
       </c>
       <c r="M15">
-        <v>12.484815429915</v>
+        <v>6.941326618212025</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.214111986562431</v>
       </c>
       <c r="O15">
-        <v>13.32751615114471</v>
+        <v>12.40655345634221</v>
       </c>
       <c r="P15">
-        <v>12.09047909348351</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.83219592278208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.40743760093158</v>
+      </c>
+      <c r="R15">
+        <v>12.13864756271918</v>
+      </c>
+      <c r="S15">
+        <v>11.5460261312348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.54303153554552</v>
+        <v>13.35315622069794</v>
       </c>
       <c r="C16">
-        <v>8.205491019393598</v>
+        <v>8.281940924152293</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.06943471450204</v>
+        <v>13.19989460304778</v>
       </c>
       <c r="F16">
-        <v>26.13123548124977</v>
+        <v>25.91290179848298</v>
       </c>
       <c r="G16">
-        <v>16.44729959587842</v>
+        <v>15.88330052249444</v>
       </c>
       <c r="H16">
-        <v>6.517761379463452</v>
+        <v>6.518414917164009</v>
       </c>
       <c r="I16">
-        <v>2.9127264406766</v>
+        <v>2.938519410407697</v>
       </c>
       <c r="J16">
-        <v>7.780060620514824</v>
+        <v>8.053313549421746</v>
       </c>
       <c r="K16">
-        <v>11.75949219475199</v>
+        <v>11.51451096636661</v>
       </c>
       <c r="L16">
-        <v>6.097076537860328</v>
+        <v>10.06799528054469</v>
       </c>
       <c r="M16">
-        <v>12.16585244485324</v>
+        <v>6.989567684375874</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.119823162701225</v>
       </c>
       <c r="O16">
-        <v>13.05913005064315</v>
+        <v>12.12366855442677</v>
       </c>
       <c r="P16">
-        <v>12.14939614706502</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.90114639508558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.12838737666319</v>
+      </c>
+      <c r="R16">
+        <v>12.17298684241412</v>
+      </c>
+      <c r="S16">
+        <v>11.6893185580207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.26723908253633</v>
+        <v>13.09593439245216</v>
       </c>
       <c r="C17">
-        <v>8.12430526640912</v>
+        <v>8.208369098443887</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.82786438692823</v>
+        <v>13.94268602428571</v>
       </c>
       <c r="F17">
-        <v>26.74416694906751</v>
+        <v>26.5553374590509</v>
       </c>
       <c r="G17">
-        <v>16.69131128096154</v>
+        <v>15.81719603471986</v>
       </c>
       <c r="H17">
-        <v>5.777003605456274</v>
+        <v>5.777107171231802</v>
       </c>
       <c r="I17">
-        <v>2.874945673222443</v>
+        <v>2.906768040822161</v>
       </c>
       <c r="J17">
-        <v>7.845383735361003</v>
+        <v>8.201291739809763</v>
       </c>
       <c r="K17">
-        <v>11.88102490444265</v>
+        <v>11.64222458133006</v>
       </c>
       <c r="L17">
-        <v>5.956232651636678</v>
+        <v>10.16807748063087</v>
       </c>
       <c r="M17">
-        <v>11.96702991978657</v>
+        <v>7.058070827036432</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.972407624106562</v>
       </c>
       <c r="O17">
-        <v>13.37332934800587</v>
+        <v>11.94087470154319</v>
       </c>
       <c r="P17">
-        <v>12.16668730129219</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.03409346462306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.43920548657922</v>
+      </c>
+      <c r="R17">
+        <v>12.17721993476694</v>
+      </c>
+      <c r="S17">
+        <v>11.84714290323277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.1016648479266</v>
+        <v>12.93028981914387</v>
       </c>
       <c r="C18">
-        <v>8.090736344904258</v>
+        <v>8.189577344058625</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.49587379792132</v>
+        <v>15.61206083984888</v>
       </c>
       <c r="F18">
-        <v>28.23665909896065</v>
+        <v>28.05116868636082</v>
       </c>
       <c r="G18">
-        <v>17.18331579832996</v>
+        <v>16.17074267367157</v>
       </c>
       <c r="H18">
-        <v>4.510177239009659</v>
+        <v>4.509992237563173</v>
       </c>
       <c r="I18">
-        <v>2.856857885769519</v>
+        <v>2.889974464403029</v>
       </c>
       <c r="J18">
-        <v>7.932502104496854</v>
+        <v>8.319284616795899</v>
       </c>
       <c r="K18">
-        <v>12.03494095865172</v>
+        <v>11.78606537174661</v>
       </c>
       <c r="L18">
-        <v>5.774603184059183</v>
+        <v>10.27715792048083</v>
       </c>
       <c r="M18">
-        <v>11.85343576833907</v>
+        <v>7.159250092009388</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.78560477921382</v>
       </c>
       <c r="O18">
-        <v>14.2264124138097</v>
+        <v>11.83402361526759</v>
       </c>
       <c r="P18">
-        <v>12.15113171417821</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.24320496239637</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.29344455663326</v>
+      </c>
+      <c r="R18">
+        <v>12.1538044980032</v>
+      </c>
+      <c r="S18">
+        <v>12.05587166816844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.01637286176181</v>
+        <v>12.83196551490064</v>
       </c>
       <c r="C19">
-        <v>8.133292911427841</v>
+        <v>8.258128964916853</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.82542054066793</v>
+        <v>17.95194015985995</v>
       </c>
       <c r="F19">
-        <v>30.30495515958868</v>
+        <v>30.10700678012241</v>
       </c>
       <c r="G19">
-        <v>17.78911286799093</v>
+        <v>16.7191387941763</v>
       </c>
       <c r="H19">
-        <v>2.986803463668897</v>
+        <v>2.986651953494528</v>
       </c>
       <c r="I19">
-        <v>2.865842997309423</v>
+        <v>2.89891215212243</v>
       </c>
       <c r="J19">
-        <v>8.023646759336547</v>
+        <v>8.412577371535884</v>
       </c>
       <c r="K19">
-        <v>12.18832535258002</v>
+        <v>11.92027118751757</v>
       </c>
       <c r="L19">
-        <v>5.615755387848796</v>
+        <v>10.37621905432603</v>
       </c>
       <c r="M19">
-        <v>11.81855173544991</v>
+        <v>7.267289514365354</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.621609121144188</v>
       </c>
       <c r="O19">
-        <v>15.44643476247785</v>
+        <v>11.80062707547462</v>
       </c>
       <c r="P19">
-        <v>12.1164779435594</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.48010781895955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.51758250562582</v>
+      </c>
+      <c r="R19">
+        <v>12.11467196326987</v>
+      </c>
+      <c r="S19">
+        <v>12.27779092998518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.20520182337662</v>
+        <v>12.973805310105</v>
       </c>
       <c r="C20">
-        <v>8.323957741573979</v>
+        <v>8.502025299084769</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>21.72690785018202</v>
+        <v>21.89184847712527</v>
       </c>
       <c r="F20">
-        <v>33.86909307702231</v>
+        <v>33.61637749104345</v>
       </c>
       <c r="G20">
-        <v>18.77537587361302</v>
+        <v>17.86598736689425</v>
       </c>
       <c r="H20">
-        <v>1.860564273676427</v>
+        <v>1.857785839745143</v>
       </c>
       <c r="I20">
-        <v>2.934368318174564</v>
+        <v>2.959416609327302</v>
       </c>
       <c r="J20">
-        <v>8.135913625044628</v>
+        <v>8.43824097127276</v>
       </c>
       <c r="K20">
-        <v>12.36644300114669</v>
+        <v>12.04940061574486</v>
       </c>
       <c r="L20">
-        <v>5.522284733656605</v>
+        <v>10.44777805350415</v>
       </c>
       <c r="M20">
-        <v>12.00633432301775</v>
+        <v>7.430162344231456</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.520308858860028</v>
       </c>
       <c r="O20">
-        <v>17.57558747903111</v>
+        <v>11.97676346572817</v>
       </c>
       <c r="P20">
-        <v>12.01834731115872</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.8208963866599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.65849572157233</v>
+      </c>
+      <c r="R20">
+        <v>12.01826863321532</v>
+      </c>
+      <c r="S20">
+        <v>12.56106909921367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.94946442157965</v>
+        <v>13.6199710176519</v>
       </c>
       <c r="C21">
-        <v>8.657775053030836</v>
+        <v>8.818583694568847</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>23.05788474430123</v>
+        <v>23.35845449175913</v>
       </c>
       <c r="F21">
-        <v>35.46290296207773</v>
+        <v>35.03346128960141</v>
       </c>
       <c r="G21">
-        <v>19.10965674247893</v>
+        <v>19.83139327394032</v>
       </c>
       <c r="H21">
-        <v>2.13453243900179</v>
+        <v>2.122793032826964</v>
       </c>
       <c r="I21">
-        <v>3.070842806866763</v>
+        <v>3.074265179413416</v>
       </c>
       <c r="J21">
-        <v>8.095684569479344</v>
+        <v>7.906877701375624</v>
       </c>
       <c r="K21">
-        <v>12.25615469657859</v>
+        <v>11.83294172444529</v>
       </c>
       <c r="L21">
-        <v>5.593989770849575</v>
+        <v>10.22868395360402</v>
       </c>
       <c r="M21">
-        <v>12.58754242654889</v>
+        <v>7.425536841995959</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.593741529816668</v>
       </c>
       <c r="O21">
-        <v>18.61145802866946</v>
+        <v>12.48557334447468</v>
       </c>
       <c r="P21">
-        <v>11.87374551538094</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.83657413217359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.71760703981385</v>
+      </c>
+      <c r="R21">
+        <v>11.90577916339211</v>
+      </c>
+      <c r="S21">
+        <v>12.38969362870686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.42938568136166</v>
+        <v>14.03715212046127</v>
       </c>
       <c r="C22">
-        <v>8.84596821824419</v>
+        <v>8.987348074405482</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.72425201537484</v>
+        <v>24.11728190811328</v>
       </c>
       <c r="F22">
-        <v>36.34663880658559</v>
+        <v>35.7977045969747</v>
       </c>
       <c r="G22">
-        <v>19.32680038975793</v>
+        <v>21.25395287370518</v>
       </c>
       <c r="H22">
-        <v>2.301817817012882</v>
+        <v>2.284445820748129</v>
       </c>
       <c r="I22">
-        <v>3.153084155226173</v>
+        <v>3.141584556352393</v>
       </c>
       <c r="J22">
-        <v>8.070677182975105</v>
+        <v>7.624343104130136</v>
       </c>
       <c r="K22">
-        <v>12.19032037011924</v>
+        <v>11.69045576019907</v>
       </c>
       <c r="L22">
-        <v>5.642014214106609</v>
+        <v>10.09202371441526</v>
       </c>
       <c r="M22">
-        <v>12.95257341095693</v>
+        <v>7.430720018686686</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.643500294201704</v>
       </c>
       <c r="O22">
-        <v>19.17500903460805</v>
+        <v>12.80146541628215</v>
       </c>
       <c r="P22">
-        <v>11.78208150655391</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.84891781327197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.29616948959944</v>
+      </c>
+      <c r="R22">
+        <v>11.83775247933014</v>
+      </c>
+      <c r="S22">
+        <v>12.26769156106405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.18900720286067</v>
+        <v>13.83529574411735</v>
       </c>
       <c r="C23">
-        <v>8.725695804321306</v>
+        <v>8.88736268297046</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.36347274194811</v>
+        <v>23.69386519834548</v>
       </c>
       <c r="F23">
-        <v>35.88852538157521</v>
+        <v>35.41888911788625</v>
       </c>
       <c r="G23">
-        <v>19.24071672942254</v>
+        <v>20.32925544408901</v>
       </c>
       <c r="H23">
-        <v>2.213176151962967</v>
+        <v>2.199175860603284</v>
       </c>
       <c r="I23">
-        <v>3.105246926476329</v>
+        <v>3.100993378146201</v>
       </c>
       <c r="J23">
-        <v>8.088564861177971</v>
+        <v>7.807641686402233</v>
       </c>
       <c r="K23">
-        <v>12.23773842858479</v>
+        <v>11.78720915773916</v>
       </c>
       <c r="L23">
-        <v>5.616546125511006</v>
+        <v>10.17650702517766</v>
       </c>
       <c r="M23">
-        <v>12.7592028996027</v>
+        <v>7.447578651117919</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.616993246228887</v>
       </c>
       <c r="O23">
-        <v>18.87227707442198</v>
+        <v>12.64157798752683</v>
       </c>
       <c r="P23">
-        <v>11.82973648086132</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.85416880973512</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.98388334730377</v>
+      </c>
+      <c r="R23">
+        <v>11.87036342794054</v>
+      </c>
+      <c r="S23">
+        <v>12.36204371284354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.21213615732056</v>
+        <v>12.98005670351709</v>
       </c>
       <c r="C24">
-        <v>8.29276319345546</v>
+        <v>8.470867441819021</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.96113816344127</v>
+        <v>22.12597422535576</v>
       </c>
       <c r="F24">
-        <v>34.09751421729519</v>
+        <v>33.84477408793854</v>
       </c>
       <c r="G24">
-        <v>18.88753278729286</v>
+        <v>17.96375264626904</v>
       </c>
       <c r="H24">
-        <v>1.869320321158509</v>
+        <v>1.866539329180604</v>
       </c>
       <c r="I24">
-        <v>2.927322398660246</v>
+        <v>2.950285385905999</v>
       </c>
       <c r="J24">
-        <v>8.153733507262473</v>
+        <v>8.458834860449059</v>
       </c>
       <c r="K24">
-        <v>12.40452752259997</v>
+        <v>12.08468675285443</v>
       </c>
       <c r="L24">
-        <v>5.517564107916891</v>
+        <v>10.4734273748803</v>
       </c>
       <c r="M24">
-        <v>11.9975961282078</v>
+        <v>7.458759054924098</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.514706352316963</v>
       </c>
       <c r="O24">
-        <v>17.68907845542912</v>
+        <v>11.96860210480222</v>
       </c>
       <c r="P24">
-        <v>12.01525947608022</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.8663635326254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.77219718133134</v>
+      </c>
+      <c r="R24">
+        <v>12.01381006342153</v>
+      </c>
+      <c r="S24">
+        <v>12.60558034473503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.06304690870829</v>
+        <v>11.909786145475</v>
       </c>
       <c r="C25">
-        <v>7.804997638308599</v>
+        <v>7.866301154925788</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>20.34952316202725</v>
+        <v>20.48141496072622</v>
       </c>
       <c r="F25">
-        <v>32.09380349427478</v>
+        <v>31.90433162851756</v>
       </c>
       <c r="G25">
-        <v>18.55422047044867</v>
+        <v>17.5597855835742</v>
       </c>
       <c r="H25">
-        <v>1.641698745747619</v>
+        <v>1.637078260694053</v>
       </c>
       <c r="I25">
-        <v>2.729480099847375</v>
+        <v>2.774487142044519</v>
       </c>
       <c r="J25">
-        <v>8.234668442639791</v>
+        <v>8.573493907496982</v>
       </c>
       <c r="K25">
-        <v>12.60061274757039</v>
+        <v>12.31280884705607</v>
       </c>
       <c r="L25">
-        <v>5.405395589648368</v>
+        <v>10.75154301091375</v>
       </c>
       <c r="M25">
-        <v>11.11513929833643</v>
+        <v>7.436163491403789</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.399449803036358</v>
       </c>
       <c r="O25">
-        <v>16.32331409801063</v>
+        <v>11.09986525611131</v>
       </c>
       <c r="P25">
-        <v>12.22199772753405</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.90476141846262</v>
+        <v>16.39179718270903</v>
+      </c>
+      <c r="R25">
+        <v>12.19532327515341</v>
+      </c>
+      <c r="S25">
+        <v>12.69528971386975</v>
       </c>
     </row>
   </sheetData>
